--- a/project/KelapaMuda_Log Book Progres Aplikasi.xlsx
+++ b/project/KelapaMuda_Log Book Progres Aplikasi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kuliah\MOBILE\Proyek Mobile Kelapa Muda\FE-FlutterProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kuliah\MOBILE\Proyek Mobile Kelapa Muda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{909A8CA6-59F2-4486-9FA6-8775F43471C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA792F1C-647A-432F-A543-517CF5ED5EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,269 +34,338 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="98">
+  <si>
+    <t>Sub Proyek ke-1 (Minggu 1-Minggu 4)</t>
+  </si>
+  <si>
+    <t>Nama Tugas</t>
+  </si>
+  <si>
+    <t>NIM</t>
+  </si>
+  <si>
+    <t>Nama Mahasiswa</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Tanggal Deadline</t>
+  </si>
+  <si>
+    <t>Files</t>
+  </si>
+  <si>
+    <t>Komentar</t>
+  </si>
+  <si>
+    <t>Nilai</t>
+  </si>
+  <si>
+    <t>Sub Proyek ke-2 (Minggu 5-Minggu 8)</t>
+  </si>
+  <si>
+    <t>UTS</t>
+  </si>
+  <si>
+    <t>Sub Proyek ke-3 (Minggu 9-Minggu 12)</t>
+  </si>
+  <si>
+    <t>Sub Proyek ke-4 (Minggu 13-Minggu 16)</t>
+  </si>
+  <si>
+    <t>UAS</t>
+  </si>
   <si>
     <t>Disposisi Surat</t>
   </si>
   <si>
+    <t>Hadron Herman Cong</t>
+  </si>
+  <si>
+    <t>Jerry</t>
+  </si>
+  <si>
+    <t>Jerry Wijaya</t>
+  </si>
+  <si>
+    <t>Christian Tiovanto</t>
+  </si>
+  <si>
+    <t>Devon Marvellous Loen</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Prototype Login Page</t>
+  </si>
+  <si>
+    <t>Prototype Page for Admin</t>
+  </si>
+  <si>
+    <t>Prototype page for Profie</t>
+  </si>
+  <si>
+    <t>Prototype Page for Compose and Email Page</t>
+  </si>
+  <si>
     <t>Kelapa Muda</t>
   </si>
   <si>
-    <t>Sub Proyek ke-1 (Minggu 1-Minggu 4)</t>
-  </si>
-  <si>
-    <t>Nama Tugas</t>
-  </si>
-  <si>
-    <t>NIM</t>
-  </si>
-  <si>
-    <t>Nama Mahasiswa</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Tanggal Deadline</t>
-  </si>
-  <si>
-    <t>Files</t>
-  </si>
-  <si>
-    <t>Komentar</t>
-  </si>
-  <si>
-    <t>Nilai</t>
-  </si>
-  <si>
-    <t>Prototype Login Page</t>
-  </si>
-  <si>
-    <t>Hadron Herman Cong</t>
-  </si>
-  <si>
-    <t>Done</t>
+    <t>Optimasi dan Debugging Home Page dan History Page :
+- memeriksa kembali kode untuk memastikan bahwa itu efisien dan tidak ada bug yang tersembunyi</t>
+  </si>
+  <si>
+    <t>Styling Home Page dan History Page :
+- Penyesuaian Warna yang Bagus dan sesuai dengan Topik
+- Penyesuaian Ukuran Tampilan Maupun Font
+- Penyesuai Design Tampilan Home Page dan History Page</t>
+  </si>
+  <si>
+    <t>Tampilan Profile Page : Penggunaan Icons, CircleAvatar, Navigator pop</t>
+  </si>
+  <si>
+    <t>Styling Profile Page : Penyesuaian warna yang sesuai dengan topik, penyesuaian ukuran font pada profile page</t>
+  </si>
+  <si>
+    <t>Pengujian pada Profile Page : Melakukan pengujian untuk memastikan bahwa profile page dapat berjalan dengan lancar</t>
+  </si>
+  <si>
+    <t>Optimasi dan Debugging Profile Page : memeriksa kembali code untuk memastikan bahwa code tidak ada bug atau pun error</t>
+  </si>
+  <si>
+    <t>Menambahkan salomon bottom bar pada bottom bar profile page</t>
+  </si>
+  <si>
+    <t>Penambahan kemanan pada Login Page dan Create User Page :
+-Menambahkan obscure text untuk semua text field password
+-Menambahkan pengecekan Field tidak boleh kosong pada Create User Page</t>
+  </si>
+  <si>
+    <t>Implementasi Fungsi pada User Page dan Create User Page :
+-Menambahkan Fungsi search untuk pada User Page
+-Menambahkan Fungsi menambah user untuk user baru</t>
+  </si>
+  <si>
+    <t>Menggabungkan Semua Page yang dibuat oleh teman teman menggunakan Navigator</t>
+  </si>
+  <si>
+    <t>Implementasi Fungsi logout untuk kembali ke halaman Login</t>
+  </si>
+  <si>
+    <t>Implementasi Fungsi Search untuk mencari Karyawan yang ditujukan</t>
+  </si>
+  <si>
+    <t>LINK GITHUB</t>
   </si>
   <si>
     <t>LINK FIGMA</t>
   </si>
   <si>
-    <t>Prototype Page for Admin</t>
-  </si>
-  <si>
-    <t>Jerry</t>
-  </si>
-  <si>
-    <t>Prototype page for Profie</t>
-  </si>
-  <si>
-    <t>Jerry Wijaya</t>
-  </si>
-  <si>
-    <t>Prototype Page for Compose and Email Page</t>
-  </si>
-  <si>
-    <t>Christian Tiovanto</t>
+    <r>
+      <t xml:space="preserve">Tampilan atau Layout Setting Page : 
+-Penggunaan </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Switch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+-Penggunaan Widget Card
+-Penggunaan Icon untuk simbol logout</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Penggunaan dan Fungsionalitas Widget PengajuanSurat : 
+- penggunaan Widget </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">dropdown Menu
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- penggunaan Widget </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">TextField
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- penggunaan Widget </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Buttons</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+      </rPr>
+      <t>- Penggunaan Widget Visibility dan ListView Builder untuk mencari user
+- Penggunaan state Visible untuk mengaktifkan dan menonaktifkan widget Visibility
+- Penggunaan Widget ListTile dan CircleAvatar</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tampilan atau Layout User Page dan Create user page : 
+-Penggunaan Widget Card, Circle Avatar dan Search Ancor
+-Penggunaan List View Builder 
+-Penggunaan </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Floating Action Button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Penggunaan dan Fungsionalitas Widget User dan Create User :
+-Penggunaan Navigator push dan pop
+-Penggunaan</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Refresh Indicator</t>
+    </r>
+  </si>
+  <si>
+    <t>Pembuatan Logo Aplikasi</t>
+  </si>
+  <si>
+    <t>Tampilan Welcome Page : 
+-Penambahan Logo Pada Welcome Page
+-Penambahan effect auto slide pada Welcome Page menuju Login Page</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tampilan Login Page : 
+-Penambahan Icon &amp; Kolom </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Textfield </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">untuk User
+-Penambahan Icon &amp; Kolom </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Textfield</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> untuk Password
+-Penambahan </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tombol Login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Prototype Loading Page dan Maintenance Page</t>
+  </si>
+  <si>
+    <t>Prototype Updating Page dan Error (400) Page</t>
   </si>
   <si>
     <t>Prototype Home Page dan Maintenance Page</t>
-  </si>
-  <si>
-    <t>Devon Marvellous Loen</t>
-  </si>
-  <si>
-    <t>Sub Proyek ke-2 (Minggu 5-Minggu 8)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Tampilan atau Layout Home Page dan History Page :
-- Penggunaan Widget Card , CircleaAvatar dan </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>SearchAncho</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">r
-- Penggunaan </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>FloatingActionButton</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> dan </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>BottomNavigatorBar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-- Penggunaan </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ListViewBuilder</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-- Penggunaan </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>DefaultTabController</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Dan </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>TabBarView</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Pada History Page</t>
-    </r>
-  </si>
-  <si>
-    <t>LINK GITHUB</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Penggunaan Dan Fungsionalitas Widget Home Page dan History Page :
-- Penggunaan Navigator Push dan Pop
-- Penggunaan Dismissible 
-- Penggunaan </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>RefreshIndicator</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> , </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NesteScrollView</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> dan </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>SliverAppBar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-- Penggunaan </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Alert Dialog</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> untuk Filterpopup nya</t>
-    </r>
   </si>
   <si>
     <t>Implementasi Fungsionalitas Home Page dan History Page :
@@ -310,271 +377,240 @@
 - Page dapat di Refresh dengan menggunakan RefreshIndicator</t>
   </si>
   <si>
-    <t>Styling Home Page dan History Page :
+    <r>
+      <t xml:space="preserve">Penggunaan Dan Fungsionalitas Widget Home Page dan History Page :
+- Penggunaan Navigator Push dan Pop
+- Penggunaan Dismissible 
+- Penggunaan </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>RefreshIndicator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> , </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NesteScrollView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> dan </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SliverAppBar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+- Penggunaan </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Alert Dialog</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> untuk Filterpopup nya</t>
+    </r>
+  </si>
+  <si>
+    <t>Optimasi dan Debugging Updating Page dan Error (400) Page :
+- memeriksa kembali kode untuk memastikan bahwa itu efisien dan tidak ada bug yang tersembunyi</t>
+  </si>
+  <si>
+    <t>Optimasi dan Debugging Loading Page dan Maintenance Page :
+- memeriksa kembali kode untuk memastikan bahwa itu efisien dan tidak ada bug yang tersembunyi</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tampilan atau Layout Home Page dan History Page :
+- Penggunaan Widget Card , CircleaAvatar dan </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SearchAncho</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">r
+- Penggunaan </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>FloatingActionButton</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> dan </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BottomNavigatorBar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+- Penggunaan </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ListViewBuilder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+- Penggunaan </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DefaultTabController</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Dan </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>TabBarView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Pada History Page</t>
+    </r>
+  </si>
+  <si>
+    <t>Pengujian Updating Page dan Error (400) Page :
+-  Lakukan pengujian untuk memastikan bahwa Updating Page dan Error(400) Page dapat berfungsi dengan baik di berbagai kondisi dan perangkat</t>
+  </si>
+  <si>
+    <t>Pengujian Loading Page dan Maintenance Page :
+-  Lakukan pengujian untuk memastikan bahwa Loading Page dan Maintenance Page dapat berfungsi dengan baik di berbagai kondisi dan perangkat</t>
+  </si>
+  <si>
+    <t>Pengujian Home Page dan History Page :
+-  Lakukan pengujian untuk memastikan bahwa home page dan history page dapat berfungsi dengan baik di berbagai kondisi dan perangkat</t>
+  </si>
+  <si>
+    <t>Styling Updating Page dan Error (400) Page :
 - Penyesuaian Warna yang Bagus dan sesuai dengan Topik
 - Penyesuaian Ukuran Tampilan Maupun Font
-- Penyesuai Design Tampilan Home Page dan History Page</t>
-  </si>
-  <si>
-    <t>Pengujian Home Page dan History Page :
--  Lakukan pengujian untuk memastikan bahwa home page dan history page dapat berfungsi dengan baik di berbagai kondisi dan perangkat</t>
-  </si>
-  <si>
-    <t>Optimasi dan Debugging Home Page dan History Page :
-- memeriksa kembali kode untuk memastikan bahwa itu efisien dan tidak ada bug yang tersembunyi</t>
-  </si>
-  <si>
-    <t>Tampilan Profile Page : Penggunaan Icons, CircleAvatar, Navigator pop</t>
-  </si>
-  <si>
-    <t>Styling Profile Page : Penyesuaian warna yang sesuai dengan topik, penyesuaian ukuran font pada profile page</t>
-  </si>
-  <si>
-    <t>Menambahkan salomon bottom bar pada bottom bar profile page</t>
-  </si>
-  <si>
-    <t>Pengujian pada Profile Page : Melakukan pengujian untuk memastikan bahwa profile page dapat berjalan dengan lancar</t>
-  </si>
-  <si>
-    <t>Optimasi dan Debugging Profile Page : memeriksa kembali code untuk memastikan bahwa code tidak ada bug atau pun error</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Tampilan atau Layout User Page dan Create user page : 
--Penggunaan Widget Card, Circle Avatar dan Search Ancor
--Penggunaan List View Builder 
--Penggunaan </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Floating Action Button</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Penggunaan dan Fungsionalitas Widget User dan Create User :
--Penggunaan Navigator push dan pop
--Penggunaan</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Refresh Indicator</t>
-    </r>
-  </si>
-  <si>
-    <t>Penambahan kemanan pada Login Page dan Create User Page :
--Menambahkan obscure text untuk semua text field password
--Menambahkan pengecekan Field tidak boleh kosong pada Create User Page</t>
-  </si>
-  <si>
-    <t>Implementasi Fungsi pada User Page dan Create User Page :
--Menambahkan Fungsi search untuk pada User Page
--Menambahkan Fungsi menambah user untuk user baru</t>
-  </si>
-  <si>
-    <t>Menggabungkan Semua Page yang dibuat oleh teman teman menggunakan Navigator</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Tampilan atau Layout Setting Page : 
--Penggunaan </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Switch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
--Penggunaan Widget Card
--Penggunaan Icon untuk simbol logout</t>
-    </r>
-  </si>
-  <si>
-    <t>Implementasi Fungsi logout untuk kembali ke halaman Login</t>
-  </si>
-  <si>
-    <t>Implementasi Fungsi Search untuk mencari Karyawan yang ditujukan</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Penggunaan dan Fungsionalitas Widget PengajuanSurat : 
-- penggunaan Widget </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">dropdown Menu
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- penggunaan Widget </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">TextField
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- penggunaan Widget </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Buttons</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-      </rPr>
-      <t>- Penggunaan Widget Visibility dan ListView Builder untuk mencari user
-- Penggunaan state Visible untuk mengaktifkan dan menonaktifkan widget Visibility
-- Penggunaan Widget ListTile dan CircleAvatar</t>
-    </r>
-  </si>
-  <si>
-    <t>Pembuatan Logo Aplikasi</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Tampilan Login Page : 
--Penambahan Icon &amp; Kolom </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Textfield </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">untuk User
--Penambahan Icon &amp; Kolom </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Textfield</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> untuk Password
--Penambahan </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tombol Login</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>Tampilan Welcome Page : 
--Penambahan Logo Pada Welcome Page
--Penambahan effect auto slide pada Welcome Page menuju Login Page</t>
-  </si>
-  <si>
-    <t>UTS</t>
-  </si>
-  <si>
-    <t>Sub Proyek ke-3 (Minggu 9-Minggu 12)</t>
-  </si>
-  <si>
-    <t>Prototype Loading Page dan Maintenance Page</t>
-  </si>
-  <si>
-    <t>Tampilan atau Layout Loading Page dan Maintenance Page :
-- Penggunaan Widget SpinKitFadingCircle dan SpinKitThreeBounce pada Loading Page
-- Penggunaan Widget Image.Asset pada Maintenance Page</t>
-  </si>
-  <si>
-    <t>Penggunaan Dan Fungsionalitas Widget Loading Page dan Maintenance Page 
-- Penggunaan Widget SpinKitFadingCircle dan SpinKitThreeBounce untuk menampilkan Animasi pada Loading Page
-- Penggunaan Widget Image.Asset untuk Menampilkan Gambar pada Maintenance Page</t>
+- PenyesuaIan Gambar/ Image yang sesuai dengan page nya
+- Penyesuai Design Tampilan Updating Page dan Error(400) Page</t>
   </si>
   <si>
     <t>Implementasi Fungsionalitas Loading Page dan Maintenance Page :
 - Loading Page Berfungsi sebagai untuk memberikan waktu bagi aplikasi untuk inisialisasi, meningkatkan pengalaman pengguna, memperkuat branding, memberikan informasi penting, dan menyembunyikan proses internal yang kompleks
 - Maintenance page berfungsi untuk memberi tahu pengguna bahwa situs atau aplikasi sedang dalam perbaikan, menjelaskan alasan atau durasi perbaikan, dan menjaga komunikasi profesional serta kepercayaan pengguna selama periode tersebut.</t>
+  </si>
+  <si>
+    <t>Implementasi Fungsionalitas Updating Page dan Error (400) Page :
+- Updating page berfungsi untuk memberi tahu pengguna bahwa aplikasi sedang dalam proses pembaruan, memberikan informasi tentang fitur atau perbaikan baru, dan memastikan pengguna memahami bahwa pembaruan sedang berlangsung untuk meningkatkan kinerja dan fungsionalitas aplikasi.
+- Error (400) page berfungsi untuk memberi tahu pengguna tentang adanya kesalahan atau masalah, memberikan penjelasan atau kode kesalahan, menawarkan solusi atau langkah selanjutnya, dan membantu menjaga pengalaman pengguna dengan tetap memberikan navigasi atau opsi bantuan.</t>
+  </si>
+  <si>
+    <t>Tampilan atau Layout Updating Page dan Error (400) Page :
+- Penggunaan Widget Elevated Button pada Error (400) Page
+- Penggunaan Widget Image.Asset pada Updating Page dan Error (400) Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penggunaan Dan Fungsionalitas Widget Updating Page dan Error (400) Page :
+- Penggunaan Widget Elevated Button Dengan Menerapkan Navigator Pop agar dapat kembali ke halaman sebelumnya pada Error (400) Page
+- Penggunaan Widget Image.Asset untuk Menampilkan Gambar pada Updating Page dan Error(400) Page
+</t>
   </si>
   <si>
     <t>Styling Loading Page dan Maintenance Page :
@@ -585,48 +621,6 @@
 - Penyesuai Design Tampilan Loading Page dan Maintenance Page</t>
   </si>
   <si>
-    <t>Pengujian Loading Page dan Maintenance Page :
--  Lakukan pengujian untuk memastikan bahwa Loading Page dan Maintenance Page dapat berfungsi dengan baik di berbagai kondisi dan perangkat</t>
-  </si>
-  <si>
-    <t>Optimasi dan Debugging Loading Page dan Maintenance Page :
-- memeriksa kembali kode untuk memastikan bahwa itu efisien dan tidak ada bug yang tersembunyi</t>
-  </si>
-  <si>
-    <t>Prototype Updating Page dan Error (400) Page</t>
-  </si>
-  <si>
-    <t>Tampilan atau Layout Updating Page dan Error (400) Page :
-- Penggunaan Widget Elevated Button pada Error (400) Page
-- Penggunaan Widget Image.Asset pada Updating Page dan Error (400) Page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Penggunaan Dan Fungsionalitas Widget Updating Page dan Error (400) Page :
-- Penggunaan Widget Elevated Button Dengan Menerapkan Navigator Pop agar dapat kembali ke halaman sebelumnya pada Error (400) Page
-- Penggunaan Widget Image.Asset untuk Menampilkan Gambar pada Updating Page dan Error(400) Page
-</t>
-  </si>
-  <si>
-    <t>Implementasi Fungsionalitas Updating Page dan Error (400) Page :
-- Updating page berfungsi untuk memberi tahu pengguna bahwa aplikasi sedang dalam proses pembaruan, memberikan informasi tentang fitur atau perbaikan baru, dan memastikan pengguna memahami bahwa pembaruan sedang berlangsung untuk meningkatkan kinerja dan fungsionalitas aplikasi.
-- Error (400) page berfungsi untuk memberi tahu pengguna tentang adanya kesalahan atau masalah, memberikan penjelasan atau kode kesalahan, menawarkan solusi atau langkah selanjutnya, dan membantu menjaga pengalaman pengguna dengan tetap memberikan navigasi atau opsi bantuan.</t>
-  </si>
-  <si>
-    <t>Styling Updating Page dan Error (400) Page :
-- Penyesuaian Warna yang Bagus dan sesuai dengan Topik
-- Penyesuaian Ukuran Tampilan Maupun Font
-- PenyesuaIan Gambar/ Image yang sesuai dengan page nya
-- Penyesuai Design Tampilan Updating Page dan Error(400) Page</t>
-  </si>
-  <si>
-    <t>Pengujian Updating Page dan Error (400) Page :
--  Lakukan pengujian untuk memastikan bahwa Updating Page dan Error(400) Page dapat berfungsi dengan baik di berbagai kondisi dan perangkat</t>
-  </si>
-  <si>
-    <t>Optimasi dan Debugging Updating Page dan Error (400) Page :
-- memeriksa kembali kode untuk memastikan bahwa itu efisien dan tidak ada bug yang tersembunyi</t>
-  </si>
-  <si>
     <t>Fix error pada detail surat page : 
 - scroll ke bawah tidak dapat berfungsi pada detail surat page</t>
   </si>
@@ -635,9 +629,6 @@
 - menambah tampilan untuk error 403, 404, dan 500</t>
   </si>
   <si>
-    <t>14/6/2024</t>
-  </si>
-  <si>
     <t>Styling untuk fitur baru pada page admin</t>
   </si>
   <si>
@@ -649,6 +640,9 @@
   </si>
   <si>
     <t>Optimasi Fitur Dark mode</t>
+  </si>
+  <si>
+    <t>To Do</t>
   </si>
   <si>
     <t>Menambah Fitur pada Page Login : 
@@ -656,9 +650,6 @@
 - menambah fitur request penggantian password</t>
   </si>
   <si>
-    <t>To Do</t>
-  </si>
-  <si>
     <t>Menambah Page Version Aplikasi:</t>
   </si>
   <si>
@@ -667,24 +658,15 @@
 - menambah fitur untuk change password</t>
   </si>
   <si>
+    <t>Menambah page About Aplication</t>
+  </si>
+  <si>
     <t>Menambah beberapa fitur pada page Profile untuk mempercantik page</t>
   </si>
   <si>
-    <t>15/6/2024</t>
-  </si>
-  <si>
-    <t>Menambah page About Aplication</t>
-  </si>
-  <si>
-    <t>15/6/2025</t>
-  </si>
-  <si>
     <t>Menambah beberapa informasi penting pada Profile page</t>
   </si>
   <si>
-    <t>15/6/2026</t>
-  </si>
-  <si>
     <t>Membuat Page Detail Surat</t>
   </si>
   <si>
@@ -697,7 +679,468 @@
     <t>Mengganti Styling  DropdownButton</t>
   </si>
   <si>
-    <t>Sub Proyek ke-4 (Minggu 13-Minggu 16)</t>
+    <r>
+      <t xml:space="preserve">
+Validasi pada Login Page
+-Validasi Form Input: Menambahkan validasi untuk memastikan bahwa pengguna telah mengisi semua field yang diperlukan. Validasi dilakukan dengan memeriksa apakah field NIK dan Password telah diisi.
+Penanganan Error: Jika salah satu field kosong, menampilkan notifikasi menggunakan </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>AwesomeDialog(Alert Dialog)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> untuk memberi tahu pengguna bahwa semua field harus diisi dan jika Proses Login berhasil akan di tampilkan notifikasi juga menggunakan AwesomeDialog untuk memberi tahu pengguna bahwa Login telah berhasil
+Validasi pada Create User Page
+-Validasi Form Input: Menambahkan validasi untuk memastikan bahwa pengguna telah mengisi semua field yang diperlukan. Validasi dilakukan dengan memeriksa apakah semua field telah diisi.
+Penanganan Error: Jika salah satu field kosong, menampilkan notifikasi menggunakan </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>AwesomeDialog(Alert Dialog)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> untuk memberi tahu pengguna bahwa field mana yang belum diisi.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+Penyesuaian Tampilan Bottom Bar dengan Class Dashboard
+- Saya membuat class baru bernama `Dashboard` yang berisikan `BottomNavigationBar` menggunakan paket `</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>convex_bottom_bar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+      </rPr>
+      <t>`. Class ini menampung tiga halaman utama: Home Page, History Page, dan Profile Page.
+- Dengan pendekatan ini, ketika beralih ke halaman lain, kita tidak perlu lagi menggunakan `Navigator.push`.
+- Pendekatan ini memungkinkan optimasi kode yang lebih baik dan meningkatkan performa aplikasi.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Penggunaan </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Snackbar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> untuk Create, Update, dan Delete User
+- Menggunakan </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Snackbar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> untuk memberikan informasi saat melakukan proses CRUD (Create, Update, Delete) pada user.
+- Memberikan feedback langsung kepada pengguna tentang status operasi CRUD.
+- Meningkatkan pengalaman pengguna dengan memberikan konfirmasi visual dan informatif setiap kali ada perubahan data user.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Penggunaan </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Shared Preferences</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> pada Login Page :
+-Penyimpanan Kredensial:
+  - Menggunakan </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Shared Preferences</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> untuk menyimpan NIK dan password di local storage perangkat.
+- Akses Otomatis:
+  - Memungkinkan pengguna untuk secara otomatis mengakses informasi login pada sesi berikutnya tanpa perlu memasukkan kembali kredensial mereka.
+- Kenyamanan Pengguna:
+  - Meningkatkan kenyamanan dan efisiensi proses login bagi pengguna.
+- Mengurangi Risiko Lupa Password:
+  - Mengurangi risiko pengguna lupa password karena kredensial sudah disimpan secara lokal.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pemakaian </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Provider</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> pada :
+Login Page
+-Menyimpan status autentikasi user.
+-Mengelola input NIK dan password.
+-Melakukan Validasi dan Autentikasi user melalui provider.
+-Menyimpan informasi user setelah berhasil login untuk diakses di halaman lain.
+Create User Page
+-Melakukan validasi input.
+-Mengirim data ke provider untuk pembuatan user baru.
+-Menyimpan status pembuatan user (berhasil/gagal).
+Profile Page
+-Menyimpan data profil user yang sedang login.
+Userlist Page 
+-Menyimpan data input dari create user page.
+-Menampilkan seluruh data user yang ada.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Membuat Fitur Delete dan Update pada Userlist Page
+- Fitur Delete:
+  - Menambahkan kemampuan untuk menghapus user dari daftar pada halaman userlist.
+  - Menggunakan </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Awesome Dialog</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>alert dialog</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">) untuk memastikan apakah pengguna yakin ingin menghapus user tersebut, memberikan opsi konfirmasi sebelum penghapusan untuk mencegah kesalahan yang tidak disengaja.
+- Fitur Update:
+  - Memungkinkan pembaruan data user langsung dari halaman userlist.
+  - Menggunakan </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Awesome Dialog</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>alert dialog</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+      </rPr>
+      <t>) untuk memastikan apakah pengguna yakin ingin memperbarui data user tersebut.
+  - Menyediakan form atau modal untuk mengedit informasi user dan menyimpan perubahan dengan mudah.</t>
+    </r>
+  </si>
+  <si>
+    <t>Menambahkan Fitur Show Password
+- Login Page:
+  - Menambahkan fitur show password pada halaman login sehingga pengguna dapat melihat password yang mereka masukkan untuk memastikan tidak ada kesalahan pengetikan sebelum mengirimkan formulir.
+- User Detail Page:
+  - Menambahkan fitur show password pada halaman detail user sehingga admin atau pengguna yang berwenang dapat melihat password yang tersimpan, memudahkan pengecekan atau pembaruan informasi.
+- Create-User Page:
+  - Menambahkan fitur show password pada halaman create-user sehingga saat membuat akun baru, pengguna atau admin dapat melihat password yang dimasukkan untuk memastikan akurasi sebelum menyimpan data.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Penggunaan </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Menu List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> pada Profile Page
+- Penempatan Tombol Settings:
+  - Menggunakan </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>menu list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> pada halaman profil untuk menempatkan tombol settings dan fungsi lainnya secara terorganisir.
+  - Menyediakan akses mudah dan intuitif bagi pengguna untuk mengatur preferensi dan konfigurasi aplikasi.
+- Fungsionalitas </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Menu List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+      </rPr>
+      <t>:
+  - Menu list dapat berisi opsi seperti pengaturan akun, preferensi aplikasi, notifikasi, atau opsi lain yang relevan dengan profil pengguna.
+  - Membantu dalam menyediakan pengalaman pengguna yang lebih terstruktur dan menyeluruh di dalam aplikasi.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tampilan atau Layout Loading Page dan Maintenance Page :
+- Penggunaan Widget </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SpinKitFadingCircle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> dan </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SpinKitThreeBounce</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> pada Loading Page
+- Penggunaan Widget Image.Asset pada Maintenance Page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Penggunaan Dan Fungsionalitas Widget Loading Page dan Maintenance Page 
+- Penggunaan Widget </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SpinKitFadingCircle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> dan </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SpinKitThreeBounce</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> untuk menampilkan Animasi pada Loading Page
+- Penggunaan Widget Image.Asset untuk Menampilkan Gambar pada Maintenance Page</t>
+    </r>
+  </si>
+  <si>
+    <t>Penyesuaian Tampilan Halaman Login, Welcome, Create User, Profile, User List, dan Create User
+- Login Page:
+  - Menyesuaikan tampilan halaman login untuk meningkatkan kejelasan dan kemudahan penggunaan.
+  - Memperbarui desain UI dan UX agar sesuai dengan standar terbaru.
+- Welcome Page:
+  - Merancang ulang halaman welcome untuk memberikan pengalaman pengguna yang lebih menyambut dan informatif.
+  - Menambahkan elemen visual dan pesan yang relevan untuk memperkenalkan aplikasi dengan baik kepada pengguna baru.
+- Create User Page:
+  - Mengoptimalkan tampilan halaman create user dengan fokus pada keterbacaan dan kemudahan pengisian formulir.
+  - Menambahkan panduan langkah demi langkah yang jelas untuk mempermudah proses pembuatan akun baru.
+- Profile Page:
+  - Menyesuaikan layout halaman profil untuk mencakup pengaturan, informasi pengguna, dan opsi personalisasi lainnya.
+  - Memastikan tampilan yang estetis dan fungsional yang memenuhi kebutuhan pengguna.
+- User List Page:
+  - Merancang ulang tata letak halaman daftar pengguna untuk meningkatkan navigasi dan keterbacaan.
+  - Menambahkan fitur pencarian dan filter untuk mempermudah pengelolaan dan pencarian pengguna.
+- Create User Page:
+  - Mengoptimalkan desain halaman create user untuk keterbacaan dan kemudahan pengisian data.
+  - Menyediakan validasi input yang jelas dan responsif untuk memastikan keakuratan informasi yang dimasukkan.</t>
+  </si>
+  <si>
+    <t>Pembuatan Halaman Detail User dengan Fitur Update Data
+- Halaman Detail User:
+  - Membuat halaman yang menampilkan detail lengkap dari seorang pengguna, termasuk NIK, Nama, Role, dan informasi lain yang relevan.
+- Fitur Update Data:
+  - Menyediakan tombol atau opsi untuk mengedit dan memperbarui informasi pengguna secara langsung dari halaman detail user.
+  - Memastikan bahwa pengguna dapat dengan mudah mengubah informasi seperti NIK, Nama, Role, dan lainnya.
+- Fungsionalitas:
+  - Implementasi fungsi update yang memungkinkan pengguna untuk mengubah data dengan mengklik tombol.
+  - Memberikan umpan balik visual atau pesan konfirmasi setelah perubahan berhasil disimpan.
+- Antarmuka Pengguna:
+  - Merancang antarmuka yang responsif dan mudah dinavigasi, memastikan bahwa pengguna dapat dengan cepat mengakses dan memanfaatkan fitur update data tanpa kesulitan.</t>
   </si>
   <si>
     <t>Membuat Navigation dari halaman Welcome Page ke Walkthrough Page lalu ke Login Page</t>
@@ -706,23 +1149,39 @@
     <t>Menambah condition pada halaman awal jika yang login adalah superadmin atau bukan</t>
   </si>
   <si>
-    <t>Menambah Bottom sheet pada filter by date di Home Screen</t>
-  </si>
-  <si>
     <t>Mengimplementasikan Fitur filter by date pada Home Screen</t>
   </si>
   <si>
     <t xml:space="preserve">Mengimplementasikan endpoint backend untuk GET All users pada halaman Super Admin </t>
   </si>
   <si>
-    <t>UAS</t>
+    <r>
+      <t>Menambah</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Bottom sheet </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+      </rPr>
+      <t>pada filter by date di Home Screen</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
@@ -778,6 +1237,11 @@
       <name val="Arial"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -804,7 +1268,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -837,45 +1301,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -945,7 +1370,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -977,16 +1402,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1045,57 +1461,24 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1432,91 +1815,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H157"/>
+  <dimension ref="A1:H162"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="A64" zoomScale="76" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77:F81"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="A71" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="68.25" customWidth="1"/>
-    <col min="2" max="2" width="15.875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="73.69921875" customWidth="1"/>
+    <col min="2" max="2" width="15.8984375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="21.796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="16.875" customWidth="1"/>
-    <col min="6" max="6" width="22.875" customWidth="1"/>
-    <col min="7" max="7" width="43.375" customWidth="1"/>
-    <col min="8" max="8" width="14.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.8984375" customWidth="1"/>
+    <col min="6" max="6" width="22.8984375" customWidth="1"/>
+    <col min="7" max="7" width="43.3984375" customWidth="1"/>
+    <col min="8" max="8" width="14.59765625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.149999999999999">
+    <row r="1" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="1:8" ht="17.45">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="17.45">
-      <c r="A3" s="5" t="s">
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="6" t="s">
+      <c r="C4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="16" t="s">
-        <v>11</v>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="B5" s="4">
         <v>221111825</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="15">
+        <v>20</v>
+      </c>
+      <c r="E5" s="12">
         <v>45396</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="17" t="s">
-        <v>15</v>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="B6" s="4">
         <v>221110417</v>
@@ -1525,362 +1908,362 @@
         <v>16</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="15">
+        <v>20</v>
+      </c>
+      <c r="E6" s="12">
         <v>45396</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="17" t="s">
-        <v>17</v>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="B7" s="4">
         <v>221110969</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="15">
+        <v>20</v>
+      </c>
+      <c r="E7" s="12">
         <v>45396</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="17" t="s">
-        <v>19</v>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="B8" s="4">
         <v>221111153</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="15">
+        <v>20</v>
+      </c>
+      <c r="E8" s="12">
         <v>45396</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="17" t="s">
-        <v>21</v>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="B9" s="4">
         <v>221110226</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="15">
+        <v>20</v>
+      </c>
+      <c r="E9" s="12">
         <v>45396</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H10"/>
     </row>
-    <row r="11" spans="1:8" ht="17.45">
+    <row r="11" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="D12" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="E12" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="F12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="G12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="H12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="82.15" customHeight="1">
-      <c r="A13" s="19" t="s">
-        <v>24</v>
+    </row>
+    <row r="13" spans="1:8" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>54</v>
       </c>
       <c r="B13" s="4">
         <v>221110226</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="15">
+        <v>20</v>
+      </c>
+      <c r="E13" s="12">
         <v>45400</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="84" customHeight="1">
-      <c r="A14" s="19" t="s">
-        <v>26</v>
+    <row r="14" spans="1:8" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>51</v>
       </c>
       <c r="B14" s="4">
         <v>221110226</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="15">
+        <v>20</v>
+      </c>
+      <c r="E14" s="12">
         <v>45403</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="160.15" customHeight="1">
-      <c r="A15" s="19" t="s">
-        <v>27</v>
+    <row r="15" spans="1:8" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>50</v>
       </c>
       <c r="B15" s="4">
         <v>221110226</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="15">
+        <v>20</v>
+      </c>
+      <c r="E15" s="12">
         <v>45406</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="17"/>
-    </row>
-    <row r="16" spans="1:8" ht="64.900000000000006" customHeight="1">
-      <c r="A16" s="18" t="s">
-        <v>28</v>
+        <v>38</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="1:8" ht="64.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="B16" s="4">
         <v>221110226</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="15">
+        <v>20</v>
+      </c>
+      <c r="E16" s="12">
         <v>45408</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="17"/>
-    </row>
-    <row r="17" spans="1:8" ht="54" customHeight="1">
-      <c r="A17" s="18" t="s">
-        <v>29</v>
+        <v>38</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="14"/>
+    </row>
+    <row r="17" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="B17" s="4">
         <v>221110226</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="15">
+        <v>20</v>
+      </c>
+      <c r="E17" s="12">
         <v>45410</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="17"/>
-    </row>
-    <row r="18" spans="1:8" ht="52.9" customHeight="1">
-      <c r="A18" s="19" t="s">
-        <v>30</v>
+        <v>38</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="14"/>
+    </row>
+    <row r="18" spans="1:8" ht="52.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="B18" s="4">
         <v>221110226</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="15">
+        <v>20</v>
+      </c>
+      <c r="E18" s="12">
         <v>45412</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="14"/>
-    </row>
-    <row r="19" spans="1:8" ht="25.15" customHeight="1">
-      <c r="A19" s="19" t="s">
-        <v>31</v>
+        <v>38</v>
+      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="B19" s="4">
         <v>221110969</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="15">
+        <v>20</v>
+      </c>
+      <c r="E19" s="12">
         <v>45402</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="30.75" customHeight="1">
-      <c r="A20" s="19" t="s">
-        <v>32</v>
+    <row r="20" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="B20" s="4">
         <v>221110969</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="15">
+        <v>20</v>
+      </c>
+      <c r="E20" s="12">
         <v>45403</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A21" s="24" t="s">
-        <v>33</v>
+    <row r="21" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>32</v>
       </c>
       <c r="B21" s="4">
         <v>221110969</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="15">
+        <v>20</v>
+      </c>
+      <c r="E21" s="12">
         <v>45405</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="18"/>
-      <c r="H21" s="17"/>
-    </row>
-    <row r="22" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A22" s="19" t="s">
-        <v>34</v>
+        <v>38</v>
+      </c>
+      <c r="G21" s="15"/>
+      <c r="H21" s="14"/>
+    </row>
+    <row r="22" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>30</v>
       </c>
       <c r="B22" s="4">
         <v>221110969</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="15">
+        <v>20</v>
+      </c>
+      <c r="E22" s="12">
         <v>45408</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" s="18"/>
-      <c r="H22" s="17"/>
-    </row>
-    <row r="23" spans="1:8" ht="34.5" customHeight="1">
-      <c r="A23" s="19" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="G22" s="15"/>
+      <c r="H22" s="14"/>
+    </row>
+    <row r="23" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>31</v>
       </c>
       <c r="B23" s="4">
         <v>221110969</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="15">
+        <v>20</v>
+      </c>
+      <c r="E23" s="12">
         <v>45409</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" s="18"/>
-      <c r="H23" s="17"/>
-    </row>
-    <row r="24" spans="1:8" ht="75" customHeight="1">
-      <c r="A24" s="19" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="G23" s="15"/>
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>42</v>
       </c>
       <c r="B24" s="4">
         <v>221110417</v>
@@ -1889,20 +2272,20 @@
         <v>16</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="15">
+        <v>20</v>
+      </c>
+      <c r="E24" s="12">
         <v>45400</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="18"/>
-      <c r="H24" s="17"/>
-    </row>
-    <row r="25" spans="1:8" ht="46.5" customHeight="1">
-      <c r="A25" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="G24" s="15"/>
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>43</v>
       </c>
       <c r="B25" s="4">
         <v>221110417</v>
@@ -1911,20 +2294,20 @@
         <v>16</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="15">
+        <v>20</v>
+      </c>
+      <c r="E25" s="12">
         <v>45403</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="18"/>
-      <c r="H25" s="17"/>
-    </row>
-    <row r="26" spans="1:8" ht="54" customHeight="1">
-      <c r="A26" s="19" t="s">
-        <v>38</v>
+        <v>38</v>
+      </c>
+      <c r="G25" s="15"/>
+      <c r="H25" s="14"/>
+    </row>
+    <row r="26" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="B26" s="4">
         <v>221110417</v>
@@ -1933,20 +2316,20 @@
         <v>16</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="15">
+        <v>20</v>
+      </c>
+      <c r="E26" s="12">
         <v>45406</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" s="18"/>
-      <c r="H26" s="17"/>
-    </row>
-    <row r="27" spans="1:8" ht="46.5" customHeight="1">
-      <c r="A27" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="G26" s="15"/>
+      <c r="H26" s="14"/>
+    </row>
+    <row r="27" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>34</v>
       </c>
       <c r="B27" s="4">
         <v>221110417</v>
@@ -1955,20 +2338,20 @@
         <v>16</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="15">
+        <v>20</v>
+      </c>
+      <c r="E27" s="12">
         <v>45408</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" s="18"/>
-      <c r="H27" s="17"/>
-    </row>
-    <row r="28" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A28" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="G27" s="15"/>
+      <c r="H27" s="14"/>
+    </row>
+    <row r="28" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="B28" s="4">
         <v>221110417</v>
@@ -1977,20 +2360,20 @@
         <v>16</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="15">
+        <v>20</v>
+      </c>
+      <c r="E28" s="12">
         <v>45413</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28" s="18"/>
-      <c r="H28" s="17"/>
-    </row>
-    <row r="29" spans="1:8" ht="61.5" customHeight="1">
-      <c r="A29" s="19" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="G28" s="15"/>
+      <c r="H28" s="14"/>
+    </row>
+    <row r="29" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="B29" s="4">
         <v>221110417</v>
@@ -1999,20 +2382,20 @@
         <v>16</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="15">
+        <v>20</v>
+      </c>
+      <c r="E29" s="12">
         <v>45410</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" s="18"/>
-      <c r="H29" s="17"/>
-    </row>
-    <row r="30" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A30" s="19" t="s">
-        <v>42</v>
+        <v>38</v>
+      </c>
+      <c r="G29" s="15"/>
+      <c r="H29" s="14"/>
+    </row>
+    <row r="30" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="B30" s="4">
         <v>221110417</v>
@@ -2021,490 +2404,490 @@
         <v>16</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="15">
+        <v>20</v>
+      </c>
+      <c r="E30" s="12">
         <v>45412</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G30" s="18"/>
-      <c r="H30" s="17"/>
-    </row>
-    <row r="31" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A31" s="19" t="s">
-        <v>43</v>
+        <v>38</v>
+      </c>
+      <c r="G30" s="15"/>
+      <c r="H30" s="14"/>
+    </row>
+    <row r="31" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
+        <v>37</v>
       </c>
       <c r="B31" s="4">
         <v>221111153</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="15">
+        <v>20</v>
+      </c>
+      <c r="E31" s="12">
         <v>45407</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G31" s="18"/>
-      <c r="H31" s="17"/>
-    </row>
-    <row r="32" spans="1:8" ht="123.6" customHeight="1">
-      <c r="A32" s="19" t="s">
-        <v>44</v>
+        <v>38</v>
+      </c>
+      <c r="G31" s="15"/>
+      <c r="H31" s="14"/>
+    </row>
+    <row r="32" spans="1:8" ht="123.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="B32" s="4">
         <v>221111153</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="15">
+        <v>20</v>
+      </c>
+      <c r="E32" s="12">
         <v>45409</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G32" s="18"/>
-      <c r="H32" s="17"/>
-    </row>
-    <row r="33" spans="1:8" ht="42.6" customHeight="1">
-      <c r="A33" s="19" t="s">
-        <v>45</v>
+        <v>38</v>
+      </c>
+      <c r="G32" s="15"/>
+      <c r="H32" s="14"/>
+    </row>
+    <row r="33" spans="1:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="B33" s="3">
         <v>221111825</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="15">
+        <v>20</v>
+      </c>
+      <c r="E33" s="12">
         <v>45395</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G33" s="18"/>
-      <c r="H33" s="17"/>
-    </row>
-    <row r="34" spans="1:8" ht="75.599999999999994" customHeight="1">
-      <c r="A34" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="15"/>
+      <c r="H33" s="14"/>
+    </row>
+    <row r="34" spans="1:8" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
         <v>46</v>
       </c>
       <c r="B34" s="3">
         <v>221111825</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="15">
+        <v>20</v>
+      </c>
+      <c r="E34" s="12">
         <v>45406</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G34" s="18"/>
-      <c r="H34" s="17"/>
-    </row>
-    <row r="35" spans="1:8" ht="61.15" customHeight="1">
-      <c r="A35" s="19" t="s">
-        <v>47</v>
+        <v>38</v>
+      </c>
+      <c r="G34" s="15"/>
+      <c r="H34" s="14"/>
+    </row>
+    <row r="35" spans="1:8" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="B35" s="3">
         <v>221111825</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="15">
+        <v>20</v>
+      </c>
+      <c r="E35" s="12">
         <v>45409</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G35" s="18"/>
-      <c r="H35" s="17"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="20"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="23"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-    </row>
-    <row r="38" spans="1:8" ht="17.45">
+        <v>38</v>
+      </c>
+      <c r="G35" s="15"/>
+      <c r="H35" s="14"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="17"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="20"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+    </row>
+    <row r="38" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="D39" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="E39" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="F39" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="G39" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="H39" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G39" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="21" customHeight="1">
-      <c r="A40" s="17" t="s">
-        <v>50</v>
+    </row>
+    <row r="40" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
+        <v>47</v>
       </c>
       <c r="B40" s="4">
         <v>221110226</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="15">
+        <v>20</v>
+      </c>
+      <c r="E40" s="12">
         <v>45444</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="10"/>
     </row>
-    <row r="41" spans="1:8" ht="66.599999999999994" customHeight="1">
-      <c r="A41" s="19" t="s">
-        <v>51</v>
+    <row r="41" spans="1:8" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="B41" s="4">
         <v>221110226</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="15">
+        <v>20</v>
+      </c>
+      <c r="E41" s="12">
         <v>45450</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="1:8" ht="75.599999999999994" customHeight="1">
-      <c r="A42" s="18" t="s">
-        <v>52</v>
+    <row r="42" spans="1:8" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
+        <v>90</v>
       </c>
       <c r="B42" s="4">
         <v>221110226</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="15">
+        <v>20</v>
+      </c>
+      <c r="E42" s="12">
         <v>45450</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-    </row>
-    <row r="43" spans="1:8" ht="133.15" customHeight="1">
-      <c r="A43" s="18" t="s">
-        <v>53</v>
+        <v>38</v>
+      </c>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+    </row>
+    <row r="43" spans="1:8" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
+        <v>59</v>
       </c>
       <c r="B43" s="4">
         <v>221110226</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" s="15">
+        <v>20</v>
+      </c>
+      <c r="E43" s="12">
         <v>45450</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-    </row>
-    <row r="44" spans="1:8" ht="92.45" customHeight="1">
-      <c r="A44" s="18" t="s">
-        <v>54</v>
+        <v>38</v>
+      </c>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+    </row>
+    <row r="44" spans="1:8" ht="92.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="B44" s="4">
         <v>221110226</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" s="15">
+        <v>20</v>
+      </c>
+      <c r="E44" s="12">
         <v>45450</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-    </row>
-    <row r="45" spans="1:8" ht="64.150000000000006" customHeight="1">
-      <c r="A45" s="28" t="s">
-        <v>55</v>
+        <v>38</v>
+      </c>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+    </row>
+    <row r="45" spans="1:8" ht="64.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="25" t="s">
+        <v>56</v>
       </c>
       <c r="B45" s="4">
         <v>221110226</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45" s="15">
+        <v>20</v>
+      </c>
+      <c r="E45" s="12">
         <v>45450</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G45" s="16"/>
+        <v>38</v>
+      </c>
+      <c r="G45" s="13"/>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="1:8" ht="56.45" customHeight="1">
-      <c r="A46" s="28" t="s">
-        <v>56</v>
+    <row r="46" spans="1:8" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="25" t="s">
+        <v>53</v>
       </c>
       <c r="B46" s="4">
         <v>221110226</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" s="15">
+        <v>20</v>
+      </c>
+      <c r="E46" s="12">
         <v>45450</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-    </row>
-    <row r="47" spans="1:8" ht="21" customHeight="1">
-      <c r="A47" s="17" t="s">
-        <v>57</v>
+        <v>38</v>
+      </c>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+    </row>
+    <row r="47" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="B47" s="4">
         <v>221110226</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" s="15">
+        <v>20</v>
+      </c>
+      <c r="E47" s="12">
         <v>45444</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="1:8" ht="58.9" customHeight="1">
-      <c r="A48" s="19" t="s">
-        <v>58</v>
+    <row r="48" spans="1:8" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="16" t="s">
+        <v>61</v>
       </c>
       <c r="B48" s="4">
         <v>221110226</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" s="15">
+        <v>20</v>
+      </c>
+      <c r="E48" s="12">
         <v>45450</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="1:8" ht="94.15" customHeight="1">
-      <c r="A49" s="18" t="s">
-        <v>59</v>
+    <row r="49" spans="1:8" ht="94.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="B49" s="4">
         <v>221110226</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" s="15">
+        <v>20</v>
+      </c>
+      <c r="E49" s="12">
         <v>45450</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-    </row>
-    <row r="50" spans="1:8" ht="136.15" customHeight="1">
-      <c r="A50" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+    </row>
+    <row r="50" spans="1:8" ht="136.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
         <v>60</v>
       </c>
       <c r="B50" s="4">
         <v>221110226</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" s="15">
+        <v>20</v>
+      </c>
+      <c r="E50" s="12">
         <v>45450</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-    </row>
-    <row r="51" spans="1:8" ht="72" customHeight="1">
-      <c r="A51" s="18" t="s">
-        <v>61</v>
+        <v>38</v>
+      </c>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+    </row>
+    <row r="51" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="B51" s="4">
         <v>221110226</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E51" s="15">
+        <v>20</v>
+      </c>
+      <c r="E51" s="12">
         <v>45450</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-    </row>
-    <row r="52" spans="1:8" ht="57" customHeight="1">
-      <c r="A52" s="27" t="s">
-        <v>62</v>
+        <v>38</v>
+      </c>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+    </row>
+    <row r="52" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="24" t="s">
+        <v>55</v>
       </c>
       <c r="B52" s="4">
         <v>221110226</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E52" s="15">
+        <v>20</v>
+      </c>
+      <c r="E52" s="12">
         <v>45450</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G52" s="16"/>
+        <v>38</v>
+      </c>
+      <c r="G52" s="13"/>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="1:8" ht="60.6" customHeight="1">
-      <c r="A53" s="28" t="s">
-        <v>63</v>
+    <row r="53" spans="1:8" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="25" t="s">
+        <v>52</v>
       </c>
       <c r="B53" s="4">
         <v>221110226</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" s="15">
+        <v>20</v>
+      </c>
+      <c r="E53" s="12">
         <v>45450</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-    </row>
-    <row r="54" spans="1:8" ht="35.450000000000003" customHeight="1">
-      <c r="A54" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+    </row>
+    <row r="54" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="16" t="s">
         <v>64</v>
       </c>
       <c r="B54" s="4">
@@ -2514,19 +2897,19 @@
         <v>16</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54" s="15">
+        <v>20</v>
+      </c>
+      <c r="E54" s="12">
         <v>45449</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G54" s="16"/>
+        <v>38</v>
+      </c>
+      <c r="G54" s="13"/>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="1:8" ht="48" customHeight="1">
-      <c r="A55" s="19" t="s">
+    <row r="55" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="16" t="s">
         <v>65</v>
       </c>
       <c r="B55" s="4">
@@ -2536,20 +2919,20 @@
         <v>16</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E55" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55" s="12">
+        <v>45457</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G55" s="13"/>
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="1:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="16" t="s">
         <v>66</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G55" s="16"/>
-      <c r="H55" s="4"/>
-    </row>
-    <row r="56" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A56" s="19" t="s">
-        <v>67</v>
       </c>
       <c r="B56" s="4">
         <v>221110417</v>
@@ -2558,20 +2941,20 @@
         <v>16</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E56" s="15" t="s">
-        <v>66</v>
+        <v>20</v>
+      </c>
+      <c r="E56" s="12">
+        <v>45457</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G56" s="16"/>
+        <v>38</v>
+      </c>
+      <c r="G56" s="13"/>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="1:8" ht="19.149999999999999" customHeight="1">
-      <c r="A57" s="19" t="s">
-        <v>68</v>
+    <row r="57" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="16" t="s">
+        <v>67</v>
       </c>
       <c r="B57" s="4">
         <v>221110417</v>
@@ -2580,20 +2963,20 @@
         <v>16</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>66</v>
+        <v>20</v>
+      </c>
+      <c r="E57" s="12">
+        <v>45457</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G57" s="16"/>
+        <v>38</v>
+      </c>
+      <c r="G57" s="13"/>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="1:8" ht="43.9" customHeight="1">
-      <c r="A58" s="19" t="s">
-        <v>69</v>
+    <row r="58" spans="1:8" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="16" t="s">
+        <v>68</v>
       </c>
       <c r="B58" s="4">
         <v>221110417</v>
@@ -2602,20 +2985,20 @@
         <v>16</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E58" s="15" t="s">
-        <v>66</v>
+        <v>20</v>
+      </c>
+      <c r="E58" s="12">
+        <v>45457</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G58" s="16"/>
+        <v>38</v>
+      </c>
+      <c r="G58" s="13"/>
       <c r="H58" s="4"/>
     </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="19" t="s">
-        <v>70</v>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="16" t="s">
+        <v>69</v>
       </c>
       <c r="B59" s="4">
         <v>221110417</v>
@@ -2624,719 +3007,882 @@
         <v>16</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>66</v>
+        <v>20</v>
+      </c>
+      <c r="E59" s="12">
+        <v>45457</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G59" s="16"/>
+        <v>38</v>
+      </c>
+      <c r="G59" s="13"/>
       <c r="H59" s="4"/>
     </row>
-    <row r="60" spans="1:8" ht="54" customHeight="1">
-      <c r="A60" s="19" t="s">
+    <row r="60" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="16" t="s">
         <v>71</v>
       </c>
       <c r="B60" s="4">
         <v>221111825</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D60" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E60" s="12">
+        <v>45457</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G60" s="13"/>
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="16" t="s">
         <v>72</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G60" s="16"/>
-      <c r="H60" s="4"/>
-    </row>
-    <row r="61" spans="1:8" ht="20.45" customHeight="1">
-      <c r="A61" s="19" t="s">
-        <v>73</v>
       </c>
       <c r="B61" s="4">
         <v>221111825</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E61" s="15" t="s">
-        <v>66</v>
+        <v>70</v>
+      </c>
+      <c r="E61" s="12">
+        <v>45457</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G61" s="16"/>
+        <v>38</v>
+      </c>
+      <c r="G61" s="13"/>
       <c r="H61" s="4"/>
     </row>
-    <row r="62" spans="1:8" ht="46.9" customHeight="1">
-      <c r="A62" s="19" t="s">
-        <v>74</v>
+    <row r="62" spans="1:8" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="16" t="s">
+        <v>73</v>
       </c>
       <c r="B62" s="4">
         <v>221111825</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E62" s="15" t="s">
-        <v>66</v>
+        <v>70</v>
+      </c>
+      <c r="E62" s="12">
+        <v>45457</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G62" s="16"/>
+        <v>38</v>
+      </c>
+      <c r="G62" s="13"/>
       <c r="H62" s="4"/>
     </row>
-    <row r="63" spans="1:8" ht="20.45" customHeight="1">
-      <c r="A63" s="19" t="s">
+    <row r="63" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="16" t="s">
         <v>75</v>
       </c>
       <c r="B63" s="4">
         <v>221110969</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E63" s="15" t="s">
-        <v>76</v>
+        <v>70</v>
+      </c>
+      <c r="E63" s="12">
+        <v>45458</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G63" s="16"/>
+        <v>38</v>
+      </c>
+      <c r="G63" s="13"/>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="1:8" ht="16.149999999999999" customHeight="1">
-      <c r="A64" s="19" t="s">
-        <v>77</v>
+    <row r="64" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="16" t="s">
+        <v>74</v>
       </c>
       <c r="B64" s="4">
         <v>221110969</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E64" s="15" t="s">
-        <v>78</v>
+        <v>70</v>
+      </c>
+      <c r="E64" s="12">
+        <v>45458</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G64" s="16"/>
+        <v>38</v>
+      </c>
+      <c r="G64" s="13"/>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="1:8" ht="16.899999999999999" customHeight="1">
-      <c r="A65" s="19" t="s">
-        <v>79</v>
+    <row r="65" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="16" t="s">
+        <v>76</v>
       </c>
       <c r="B65" s="4">
         <v>221110969</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E65" s="15" t="s">
-        <v>80</v>
+        <v>70</v>
+      </c>
+      <c r="E65" s="12">
+        <v>45458</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G65" s="16"/>
+        <v>38</v>
+      </c>
+      <c r="G65" s="13"/>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="1:8" ht="16.899999999999999" customHeight="1">
-      <c r="A66" s="19" t="s">
-        <v>81</v>
+    <row r="66" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="16" t="s">
+        <v>77</v>
       </c>
       <c r="B66" s="4">
         <v>221111153</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E66" s="15">
+        <v>70</v>
+      </c>
+      <c r="E66" s="12">
         <v>45455</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G66" s="16"/>
+        <v>38</v>
+      </c>
+      <c r="G66" s="13"/>
       <c r="H66" s="4"/>
     </row>
-    <row r="67" spans="1:8" ht="16.899999999999999" customHeight="1">
-      <c r="A67" s="19" t="s">
-        <v>82</v>
+    <row r="67" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="B67" s="4">
         <v>221111153</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E67" s="15">
+        <v>70</v>
+      </c>
+      <c r="E67" s="12">
         <v>45455</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G67" s="16"/>
+        <v>38</v>
+      </c>
+      <c r="G67" s="13"/>
       <c r="H67" s="4"/>
     </row>
-    <row r="68" spans="1:8" ht="16.899999999999999" customHeight="1">
-      <c r="A68" s="19" t="s">
-        <v>83</v>
+    <row r="68" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="16" t="s">
+        <v>79</v>
       </c>
       <c r="B68" s="4">
         <v>221111153</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E68" s="15">
+        <v>70</v>
+      </c>
+      <c r="E68" s="12">
         <v>45455</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G68" s="16"/>
+        <v>38</v>
+      </c>
+      <c r="G68" s="13"/>
       <c r="H68" s="4"/>
     </row>
-    <row r="69" spans="1:8" ht="16.899999999999999" customHeight="1">
-      <c r="A69" s="19" t="s">
-        <v>84</v>
+    <row r="69" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="16" t="s">
+        <v>80</v>
       </c>
       <c r="B69" s="4">
         <v>221111153</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E69" s="15">
+        <v>70</v>
+      </c>
+      <c r="E69" s="12">
         <v>45455</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G69" s="16"/>
+        <v>38</v>
+      </c>
+      <c r="G69" s="13"/>
       <c r="H69" s="4"/>
     </row>
-    <row r="70" spans="1:8" ht="16.899999999999999" customHeight="1">
-      <c r="A70" s="29"/>
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="30"/>
-      <c r="G70" s="16"/>
+    <row r="70" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="26"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="13"/>
       <c r="H70" s="4"/>
     </row>
-    <row r="71" spans="1:8" ht="16.899999999999999" customHeight="1">
-      <c r="A71" s="29"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="31"/>
-      <c r="F71" s="30"/>
-      <c r="G71" s="16"/>
+    <row r="71" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="26"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="13"/>
       <c r="H71" s="4"/>
     </row>
-    <row r="72" spans="1:8" ht="16.899999999999999" customHeight="1">
-      <c r="A72" s="29"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="31"/>
-      <c r="F72" s="30"/>
-      <c r="G72" s="16"/>
+    <row r="72" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="26"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="13"/>
       <c r="H72" s="4"/>
     </row>
-    <row r="73" spans="1:8" ht="16.899999999999999" customHeight="1">
-      <c r="A73" s="33"/>
-      <c r="B73" s="34"/>
-      <c r="C73" s="34"/>
-      <c r="D73" s="34"/>
-      <c r="E73" s="35"/>
-      <c r="F73" s="36"/>
-      <c r="G73" s="34"/>
-      <c r="H73" s="32"/>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="37"/>
-      <c r="B74" s="38"/>
-      <c r="C74" s="37"/>
-      <c r="D74" s="37"/>
-      <c r="E74" s="37"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="37"/>
-      <c r="H74" s="37"/>
-    </row>
-    <row r="75" spans="1:8" ht="17.45">
+    <row r="73" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="30"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="33"/>
+      <c r="G73" s="31"/>
+      <c r="H73" s="29"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="34"/>
+      <c r="B74" s="35"/>
+      <c r="C74" s="34"/>
+      <c r="D74" s="34"/>
+      <c r="E74" s="34"/>
+      <c r="F74" s="34"/>
+      <c r="G74" s="34"/>
+      <c r="H74" s="34"/>
+    </row>
+    <row r="75" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="262.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="16" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F76" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G76" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H76" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="15">
-      <c r="A77" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="B77" s="4">
-        <v>221110417</v>
+        <v>221110226</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E77" s="15">
-        <v>45485</v>
+        <v>20</v>
+      </c>
+      <c r="E77" s="12">
+        <v>45462</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="10"/>
     </row>
-    <row r="78" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A78" t="s">
-        <v>87</v>
+    <row r="78" spans="1:8" ht="244.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="16" t="s">
+        <v>81</v>
       </c>
       <c r="B78" s="4">
-        <v>221110418</v>
+        <v>221110226</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E78" s="15">
-        <v>45486</v>
+        <v>20</v>
+      </c>
+      <c r="E78" s="12">
+        <v>45462</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="4"/>
     </row>
-    <row r="79" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A79" s="3" t="s">
-        <v>88</v>
+    <row r="79" spans="1:8" ht="147" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="16" t="s">
+        <v>82</v>
       </c>
       <c r="B79" s="4">
-        <v>221110419</v>
+        <v>221110226</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E79" s="15">
-        <v>45487</v>
+        <v>20</v>
+      </c>
+      <c r="E79" s="12">
+        <v>45462</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="4"/>
     </row>
-    <row r="80" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A80" s="3" t="s">
-        <v>89</v>
+    <row r="80" spans="1:8" ht="110.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="16" t="s">
+        <v>83</v>
       </c>
       <c r="B80" s="4">
-        <v>221110420</v>
+        <v>221110226</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E80" s="15">
-        <v>45488</v>
+        <v>20</v>
+      </c>
+      <c r="E80" s="12">
+        <v>45462</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="G80" s="3"/>
       <c r="H80" s="4"/>
     </row>
-    <row r="81" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A81" s="3" t="s">
-        <v>90</v>
+    <row r="81" spans="1:8" ht="192.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="16" t="s">
+        <v>84</v>
       </c>
       <c r="B81" s="4">
-        <v>221110421</v>
+        <v>221110226</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E81" s="15">
-        <v>45489</v>
+        <v>20</v>
+      </c>
+      <c r="E81" s="12">
+        <v>45462</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="G81" s="3"/>
       <c r="H81" s="4"/>
     </row>
-    <row r="82" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A82" s="3"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="8"/>
+    <row r="82" spans="1:8" ht="208.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82" s="4">
+        <v>221110226</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E82" s="12">
+        <v>45462</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="G82" s="3"/>
       <c r="H82" s="4"/>
     </row>
-    <row r="83" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A83" s="3"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="8"/>
+    <row r="83" spans="1:8" ht="246.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83" s="4">
+        <v>221110226</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E83" s="12">
+        <v>45462</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="G83" s="3"/>
       <c r="H83" s="4"/>
     </row>
-    <row r="84" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A84" s="46"/>
-      <c r="B84" s="39"/>
-      <c r="C84" s="49"/>
-      <c r="D84" s="49"/>
-      <c r="E84" s="49"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="52"/>
-      <c r="H84" s="39"/>
-    </row>
-    <row r="85" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A85" s="47"/>
-      <c r="B85" s="40"/>
-      <c r="C85" s="50"/>
-      <c r="D85" s="50"/>
-      <c r="E85" s="50"/>
-      <c r="F85" s="13"/>
-      <c r="G85" s="53"/>
-      <c r="H85" s="40"/>
-    </row>
-    <row r="86" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A86" s="48"/>
-      <c r="B86" s="41"/>
-      <c r="C86" s="51"/>
-      <c r="D86" s="51"/>
-      <c r="E86" s="51"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="54"/>
-      <c r="H86" s="41"/>
-    </row>
-    <row r="87" spans="1:8" ht="14.25">
-      <c r="A87" s="42"/>
-      <c r="B87" s="43"/>
-      <c r="C87" s="43"/>
-      <c r="D87" s="43"/>
-      <c r="E87" s="43"/>
-      <c r="F87" s="43"/>
-      <c r="G87" s="44"/>
-      <c r="H87" s="14"/>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="H88"/>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" s="45" t="s">
+    <row r="84" spans="1:8" ht="187.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84" s="4">
+        <v>221110226</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E84" s="12">
+        <v>45462</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G84" s="3"/>
+      <c r="H84" s="4"/>
+    </row>
+    <row r="85" spans="1:8" ht="409.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="B89" s="45"/>
-      <c r="C89" s="45"/>
-      <c r="D89" s="45"/>
-      <c r="E89" s="45"/>
-      <c r="F89" s="45"/>
-      <c r="G89" s="45"/>
-      <c r="H89" s="45"/>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="H90"/>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="H91"/>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="H92"/>
-    </row>
-    <row r="93" spans="1:8">
+      <c r="B85" s="4">
+        <v>221110226</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E85" s="12">
+        <v>45462</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G85" s="3"/>
+      <c r="H85" s="4"/>
+    </row>
+    <row r="86" spans="1:8" ht="316.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B86" s="4">
+        <v>221110226</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E86" s="12">
+        <v>45462</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G86" s="3"/>
+      <c r="H86" s="4"/>
+    </row>
+    <row r="87" spans="1:8" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B87" s="4">
+        <v>221110417</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E87" s="12">
+        <v>45485</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G87" s="3"/>
+      <c r="H87" s="10"/>
+    </row>
+    <row r="88" spans="1:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B88" s="4">
+        <v>221110418</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E88" s="12">
+        <v>45486</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G88" s="3"/>
+      <c r="H88" s="4"/>
+    </row>
+    <row r="89" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B89" s="4">
+        <v>221110419</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E89" s="12">
+        <v>45487</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G89" s="3"/>
+      <c r="H89" s="4"/>
+    </row>
+    <row r="90" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90" s="4">
+        <v>221110420</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E90" s="12">
+        <v>45488</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G90" s="3"/>
+      <c r="H90" s="4"/>
+    </row>
+    <row r="91" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B91" s="4">
+        <v>221110421</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E91" s="12">
+        <v>45489</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G91" s="3"/>
+      <c r="H91" s="4"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="37"/>
+      <c r="B92" s="38"/>
+      <c r="C92" s="38"/>
+      <c r="D92" s="38"/>
+      <c r="E92" s="38"/>
+      <c r="F92" s="38"/>
+      <c r="G92" s="39"/>
+      <c r="H92" s="11"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H93"/>
     </row>
-    <row r="94" spans="1:8">
-      <c r="H94"/>
-    </row>
-    <row r="95" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B94" s="40"/>
+      <c r="C94" s="40"/>
+      <c r="D94" s="40"/>
+      <c r="E94" s="40"/>
+      <c r="F94" s="40"/>
+      <c r="G94" s="40"/>
+      <c r="H94" s="40"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H96"/>
     </row>
-    <row r="97" spans="8:8">
+    <row r="97" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H97"/>
     </row>
-    <row r="98" spans="8:8">
+    <row r="98" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H98"/>
     </row>
-    <row r="99" spans="8:8">
+    <row r="99" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H99"/>
     </row>
-    <row r="100" spans="8:8">
+    <row r="100" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H100"/>
     </row>
-    <row r="101" spans="8:8">
+    <row r="101" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H101"/>
     </row>
-    <row r="102" spans="8:8">
+    <row r="102" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H102"/>
     </row>
-    <row r="103" spans="8:8">
+    <row r="103" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H103"/>
     </row>
-    <row r="104" spans="8:8">
+    <row r="104" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H104"/>
     </row>
-    <row r="105" spans="8:8">
+    <row r="105" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H105"/>
     </row>
-    <row r="106" spans="8:8">
+    <row r="106" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H106"/>
     </row>
-    <row r="107" spans="8:8">
+    <row r="107" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H107"/>
     </row>
-    <row r="108" spans="8:8">
+    <row r="108" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H108"/>
     </row>
-    <row r="109" spans="8:8">
+    <row r="109" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H109"/>
     </row>
-    <row r="110" spans="8:8">
+    <row r="110" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H110"/>
     </row>
-    <row r="111" spans="8:8">
+    <row r="111" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H111"/>
     </row>
-    <row r="112" spans="8:8">
+    <row r="112" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H112"/>
     </row>
-    <row r="113" spans="8:8">
+    <row r="113" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H113"/>
     </row>
-    <row r="114" spans="8:8">
+    <row r="114" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H114"/>
     </row>
-    <row r="115" spans="8:8">
+    <row r="115" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H115"/>
     </row>
-    <row r="116" spans="8:8">
+    <row r="116" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H116"/>
     </row>
-    <row r="117" spans="8:8">
+    <row r="117" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H117"/>
     </row>
-    <row r="118" spans="8:8">
+    <row r="118" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H118"/>
     </row>
-    <row r="119" spans="8:8">
+    <row r="119" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H119"/>
     </row>
-    <row r="120" spans="8:8">
+    <row r="120" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H120"/>
     </row>
-    <row r="121" spans="8:8">
+    <row r="121" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H121"/>
     </row>
-    <row r="122" spans="8:8">
+    <row r="122" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H122"/>
     </row>
-    <row r="123" spans="8:8">
+    <row r="123" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H123"/>
     </row>
-    <row r="124" spans="8:8">
+    <row r="124" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H124"/>
     </row>
-    <row r="125" spans="8:8">
+    <row r="125" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H125"/>
     </row>
-    <row r="126" spans="8:8">
+    <row r="126" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H126"/>
     </row>
-    <row r="127" spans="8:8">
+    <row r="127" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H127"/>
     </row>
-    <row r="128" spans="8:8">
+    <row r="128" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H128"/>
     </row>
-    <row r="129" spans="8:8">
+    <row r="129" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H129"/>
     </row>
-    <row r="130" spans="8:8">
+    <row r="130" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H130"/>
     </row>
-    <row r="131" spans="8:8">
+    <row r="131" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H131"/>
     </row>
-    <row r="132" spans="8:8">
+    <row r="132" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H132"/>
     </row>
-    <row r="133" spans="8:8">
+    <row r="133" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H133"/>
     </row>
-    <row r="134" spans="8:8">
+    <row r="134" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H134"/>
     </row>
-    <row r="135" spans="8:8">
+    <row r="135" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H135"/>
     </row>
-    <row r="136" spans="8:8">
+    <row r="136" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H136"/>
     </row>
-    <row r="137" spans="8:8">
+    <row r="137" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H137"/>
     </row>
-    <row r="138" spans="8:8">
+    <row r="138" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H138"/>
     </row>
-    <row r="139" spans="8:8">
+    <row r="139" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H139"/>
     </row>
-    <row r="140" spans="8:8">
+    <row r="140" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H140"/>
     </row>
-    <row r="141" spans="8:8">
+    <row r="141" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H141"/>
     </row>
-    <row r="142" spans="8:8">
+    <row r="142" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H142"/>
     </row>
-    <row r="143" spans="8:8">
+    <row r="143" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H143"/>
     </row>
-    <row r="144" spans="8:8">
+    <row r="144" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H144"/>
     </row>
-    <row r="145" spans="8:8">
+    <row r="145" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H145"/>
     </row>
-    <row r="146" spans="8:8">
+    <row r="146" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H146"/>
     </row>
-    <row r="147" spans="8:8">
+    <row r="147" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H147"/>
     </row>
-    <row r="148" spans="8:8">
+    <row r="148" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H148"/>
     </row>
-    <row r="149" spans="8:8">
+    <row r="149" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H149"/>
     </row>
-    <row r="150" spans="8:8">
+    <row r="150" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H150"/>
     </row>
-    <row r="151" spans="8:8">
+    <row r="151" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H151"/>
     </row>
-    <row r="152" spans="8:8">
+    <row r="152" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H152"/>
     </row>
-    <row r="153" spans="8:8">
+    <row r="153" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H153"/>
     </row>
-    <row r="154" spans="8:8">
+    <row r="154" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H154"/>
     </row>
-    <row r="155" spans="8:8">
+    <row r="155" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H155"/>
     </row>
-    <row r="156" spans="8:8">
+    <row r="156" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H156"/>
     </row>
-    <row r="157" spans="8:8">
+    <row r="157" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H157"/>
     </row>
+    <row r="158" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H158"/>
+    </row>
+    <row r="159" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H159"/>
+    </row>
+    <row r="160" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H160"/>
+    </row>
+    <row r="161" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H161"/>
+    </row>
+    <row r="162" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H162"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="H84:H86"/>
-    <mergeCell ref="A87:G87"/>
+  <mergeCells count="3">
+    <mergeCell ref="A92:G92"/>
     <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A89:H89"/>
-    <mergeCell ref="A84:A86"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="C84:C86"/>
-    <mergeCell ref="D84:D86"/>
-    <mergeCell ref="E84:E86"/>
-    <mergeCell ref="G84:G86"/>
+    <mergeCell ref="A94:H94"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
@@ -3364,22 +3910,26 @@
     <hyperlink ref="F60:F62" r:id="rId22" display="LINK GITHUB" xr:uid="{597B1965-8465-4E70-8D4D-B82F640F29FD}"/>
     <hyperlink ref="F63:F65" r:id="rId23" display="LINK GITHUB" xr:uid="{01866A11-EA57-4777-9EA9-440094A9354A}"/>
     <hyperlink ref="F66:F69" r:id="rId24" display="LINK GITHUB" xr:uid="{4A5771B7-021F-4689-8C89-C4AAEB3A445C}"/>
-    <hyperlink ref="F77" r:id="rId25" xr:uid="{5117337E-C525-4633-ACE0-EB4B49A01DFA}"/>
-    <hyperlink ref="F78:F81" r:id="rId26" display="LINK GITHUB" xr:uid="{5F2A64A2-0C99-4B21-8B22-F842F585B779}"/>
+    <hyperlink ref="F77" r:id="rId25" xr:uid="{54020BB7-5E21-45D2-8E1B-0CF05B7A71B8}"/>
+    <hyperlink ref="F78" r:id="rId26" xr:uid="{1D6861BD-3813-47F4-B45D-0D57FDAA5CA8}"/>
+    <hyperlink ref="F79" r:id="rId27" xr:uid="{F3B21314-8234-4ED7-822D-F12382D3CB4A}"/>
+    <hyperlink ref="F80" r:id="rId28" xr:uid="{4AA9A4F8-05A2-4CC4-9987-B2DFF1D1DF13}"/>
+    <hyperlink ref="F81" r:id="rId29" xr:uid="{BADA270C-B836-40B2-973B-D84BBD3B44B7}"/>
+    <hyperlink ref="F82" r:id="rId30" xr:uid="{3D6C3E27-F39A-4CD6-9975-FAD1D74FE14F}"/>
+    <hyperlink ref="F83" r:id="rId31" xr:uid="{B8AE2A76-DFBE-4D0B-9F19-4FEC2C3BB3E6}"/>
+    <hyperlink ref="F84" r:id="rId32" xr:uid="{E4E2C633-B35C-453B-A18C-2EB5A77AE440}"/>
+    <hyperlink ref="F85" r:id="rId33" xr:uid="{B9AF9416-0496-4909-8098-FC108D66CA28}"/>
+    <hyperlink ref="F86" r:id="rId34" xr:uid="{6F293523-40C6-43A1-9367-F6F51CC9DB44}"/>
+    <hyperlink ref="F87" r:id="rId35" xr:uid="{599B2859-3205-4713-86DA-CBE7738D1D75}"/>
+    <hyperlink ref="F88:F91" r:id="rId36" display="LINK GITHUB" xr:uid="{D5087055-21B6-4319-AB35-6B3E616C1FDD}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId27"/>
-  <drawing r:id="rId28"/>
+  <pageSetup orientation="portrait" r:id="rId37"/>
+  <drawing r:id="rId38"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100706FCD106DC67F478E7AC08055BE95E0" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b4c83244a03efcf3d87561d2a17ee175">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d57f510-195c-4a5b-9910-92d08bb6f927" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2ab241c6980cd99e19d275b176c1d106" ns2:_="">
     <xsd:import namespace="5d57f510-195c-4a5b-9910-92d08bb6f927"/>
@@ -3523,6 +4073,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3533,13 +4089,38 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB351F66-E749-4C6A-94A3-2E72291390F1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F962CA7-ECD0-41CD-BDDF-88920DD9A3EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="5d57f510-195c-4a5b-9910-92d08bb6f927"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F962CA7-ECD0-41CD-BDDF-88920DD9A3EA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB351F66-E749-4C6A-94A3-2E72291390F1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3148F68F-EDCD-4F99-BB76-BF661EA9CB60}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3148F68F-EDCD-4F99-BB76-BF661EA9CB60}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/project/KelapaMuda_Log Book Progres Aplikasi.xlsx
+++ b/project/KelapaMuda_Log Book Progres Aplikasi.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kuliah\MOBILE\Proyek Mobile Kelapa Muda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kuliah\MOBILE\Proyek Mobile Kelapa Muda\FE-FlutterProject\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA792F1C-647A-432F-A543-517CF5ED5EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95208A5-8EC3-4873-B7CE-65FE527A456A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tugas-proyek" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="103">
   <si>
     <t>Sub Proyek ke-1 (Minggu 1-Minggu 4)</t>
   </si>
@@ -1175,6 +1175,21 @@
       </rPr>
       <t>pada filter by date di Home Screen</t>
     </r>
+  </si>
+  <si>
+    <t>Mengimplementasikan endpoint backend untuk GET All letters pada halaman home page</t>
+  </si>
+  <si>
+    <t>Mengimplementasikan endpoint backend untuk GET All letters pada halaman history_page</t>
+  </si>
+  <si>
+    <t>Mengimplementasikan endpoint backend untuk memberikan Respon Letters pada halaman LetterContent</t>
+  </si>
+  <si>
+    <t>Mengganti value pada dropdown button agar sesuai dengan Konsep</t>
+  </si>
+  <si>
+    <t>Mengimplementasikan endpoint backend untuk get All Users pada halaman searchUserWidget untuk mencari user yang diinginkan</t>
   </si>
 </sst>
 </file>
@@ -1370,7 +1385,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1479,6 +1494,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1815,10 +1842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H162"/>
+  <dimension ref="A1:H167"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="A71" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3161,7 +3188,7 @@
         <v>18</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="E66" s="12">
         <v>45455</v>
@@ -3183,7 +3210,7 @@
         <v>18</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="E67" s="12">
         <v>45455</v>
@@ -3205,7 +3232,7 @@
         <v>18</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="E68" s="12">
         <v>45455</v>
@@ -3227,7 +3254,7 @@
         <v>18</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="E69" s="12">
         <v>45455</v>
@@ -3649,83 +3676,178 @@
       <c r="G91" s="3"/>
       <c r="H91" s="4"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="37"/>
-      <c r="B92" s="38"/>
-      <c r="C92" s="38"/>
-      <c r="D92" s="38"/>
-      <c r="E92" s="38"/>
-      <c r="F92" s="38"/>
-      <c r="G92" s="39"/>
-      <c r="H92" s="11"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H93"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="40" t="s">
+    <row r="92" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B92" s="13">
+        <v>221111153</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E92" s="41">
+        <v>45479</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G92" s="3"/>
+      <c r="H92" s="4"/>
+    </row>
+    <row r="93" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B93" s="4">
+        <v>221111153</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E93" s="41">
+        <v>45479</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G93" s="3"/>
+      <c r="H93" s="4"/>
+    </row>
+    <row r="94" spans="1:8" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="B94" s="42">
+        <v>221111153</v>
+      </c>
+      <c r="C94" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D94" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E94" s="43">
+        <v>45479</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G94" s="3"/>
+      <c r="H94" s="4"/>
+    </row>
+    <row r="95" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B95" s="4">
+        <v>221111153</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E95" s="41">
+        <v>45479</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G95" s="3"/>
+      <c r="H95" s="4"/>
+    </row>
+    <row r="96" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B96" s="4">
+        <v>221111153</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E96" s="41">
+        <v>45479</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G96" s="3"/>
+      <c r="H96" s="4"/>
+    </row>
+    <row r="97" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="37"/>
+      <c r="B97" s="38"/>
+      <c r="C97" s="38"/>
+      <c r="D97" s="38"/>
+      <c r="E97" s="38"/>
+      <c r="F97" s="38"/>
+      <c r="G97" s="39"/>
+      <c r="H97" s="11"/>
+    </row>
+    <row r="98" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H98"/>
+    </row>
+    <row r="99" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B94" s="40"/>
-      <c r="C94" s="40"/>
-      <c r="D94" s="40"/>
-      <c r="E94" s="40"/>
-      <c r="F94" s="40"/>
-      <c r="G94" s="40"/>
-      <c r="H94" s="40"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H95"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H96"/>
-    </row>
-    <row r="97" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H97"/>
-    </row>
-    <row r="98" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H98"/>
-    </row>
-    <row r="99" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H99"/>
-    </row>
-    <row r="100" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="B99" s="40"/>
+      <c r="C99" s="40"/>
+      <c r="D99" s="40"/>
+      <c r="E99" s="40"/>
+      <c r="F99" s="40"/>
+      <c r="G99" s="40"/>
+      <c r="H99" s="40"/>
+    </row>
+    <row r="100" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H100"/>
     </row>
-    <row r="101" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H101"/>
     </row>
-    <row r="102" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H102"/>
     </row>
-    <row r="103" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H103"/>
     </row>
-    <row r="104" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H104"/>
     </row>
-    <row r="105" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H105"/>
     </row>
-    <row r="106" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H106"/>
     </row>
-    <row r="107" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H107"/>
     </row>
-    <row r="108" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H108"/>
     </row>
-    <row r="109" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H109"/>
     </row>
-    <row r="110" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H110"/>
     </row>
-    <row r="111" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H111"/>
     </row>
-    <row r="112" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H112"/>
     </row>
     <row r="113" spans="8:8" x14ac:dyDescent="0.25">
@@ -3878,11 +4000,26 @@
     <row r="162" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H162"/>
     </row>
+    <row r="163" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H163"/>
+    </row>
+    <row r="164" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H164"/>
+    </row>
+    <row r="165" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H165"/>
+    </row>
+    <row r="166" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H166"/>
+    </row>
+    <row r="167" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H167"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A92:G92"/>
+    <mergeCell ref="A97:G97"/>
     <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A94:H94"/>
+    <mergeCell ref="A99:H99"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
@@ -3922,14 +4059,30 @@
     <hyperlink ref="F86" r:id="rId34" xr:uid="{6F293523-40C6-43A1-9367-F6F51CC9DB44}"/>
     <hyperlink ref="F87" r:id="rId35" xr:uid="{599B2859-3205-4713-86DA-CBE7738D1D75}"/>
     <hyperlink ref="F88:F91" r:id="rId36" display="LINK GITHUB" xr:uid="{D5087055-21B6-4319-AB35-6B3E616C1FDD}"/>
+    <hyperlink ref="F92:F96" r:id="rId37" display="LINK GITHUB" xr:uid="{68A4ED14-2B8A-4344-BABD-63DC1FB70C1F}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId37"/>
-  <drawing r:id="rId38"/>
+  <pageSetup orientation="portrait" r:id="rId38"/>
+  <drawing r:id="rId39"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100706FCD106DC67F478E7AC08055BE95E0" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b4c83244a03efcf3d87561d2a17ee175">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d57f510-195c-4a5b-9910-92d08bb6f927" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2ab241c6980cd99e19d275b176c1d106" ns2:_="">
     <xsd:import namespace="5d57f510-195c-4a5b-9910-92d08bb6f927"/>
@@ -4073,22 +4226,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3148F68F-EDCD-4F99-BB76-BF661EA9CB60}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB351F66-E749-4C6A-94A3-2E72291390F1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F962CA7-ECD0-41CD-BDDF-88920DD9A3EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4105,22 +4261,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB351F66-E749-4C6A-94A3-2E72291390F1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3148F68F-EDCD-4F99-BB76-BF661EA9CB60}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/project/KelapaMuda_Log Book Progres Aplikasi.xlsx
+++ b/project/KelapaMuda_Log Book Progres Aplikasi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kuliah\MOBILE\Proyek Mobile Kelapa Muda\FE-FlutterProject\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95208A5-8EC3-4873-B7CE-65FE527A456A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83909E86-49BE-448F-B6E5-19DAE10DFB66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tugas-proyek" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="106">
   <si>
     <t>Sub Proyek ke-1 (Minggu 1-Minggu 4)</t>
   </si>
@@ -1190,6 +1190,15 @@
   </si>
   <si>
     <t>Mengimplementasikan endpoint backend untuk get All Users pada halaman searchUserWidget untuk mencari user yang diinginkan</t>
+  </si>
+  <si>
+    <t>Menambah About Application dan Informasi tentang Aplikasi dengan menggunakan Walkthrough</t>
+  </si>
+  <si>
+    <t>Menambah LinearProgressIndicator pada Home Page</t>
+  </si>
+  <si>
+    <t>Menambah LinearProgressIndicator pada History Page</t>
   </si>
 </sst>
 </file>
@@ -1283,7 +1292,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1323,43 +1332,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1385,7 +1357,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1417,7 +1389,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1476,24 +1448,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1506,6 +1466,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1842,41 +1808,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H167"/>
+  <dimension ref="A1:H173"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G90" sqref="G90"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="A95" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="73.69921875" customWidth="1"/>
-    <col min="2" max="2" width="15.8984375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="21.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="109.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="21.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="16.8984375" customWidth="1"/>
-    <col min="6" max="6" width="22.8984375" customWidth="1"/>
-    <col min="7" max="7" width="43.3984375" customWidth="1"/>
-    <col min="8" max="8" width="14.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.875" customWidth="1"/>
+    <col min="6" max="6" width="22.875" customWidth="1"/>
+    <col min="7" max="7" width="43.375" customWidth="1"/>
+    <col min="8" max="8" width="14.625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -1902,7 +1868,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>21</v>
       </c>
@@ -1924,7 +1890,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>22</v>
       </c>
@@ -1946,7 +1912,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>23</v>
       </c>
@@ -1968,7 +1934,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>24</v>
       </c>
@@ -1990,7 +1956,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>49</v>
       </c>
@@ -2012,15 +1978,15 @@
       <c r="G9" s="3"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H10"/>
     </row>
-    <row r="11" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>1</v>
       </c>
@@ -2046,7 +2012,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="82.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>54</v>
       </c>
@@ -2068,7 +2034,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>51</v>
       </c>
@@ -2090,7 +2056,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="160.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>50</v>
       </c>
@@ -2112,7 +2078,7 @@
       <c r="G15" s="15"/>
       <c r="H15" s="14"/>
     </row>
-    <row r="16" spans="1:8" ht="64.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>27</v>
       </c>
@@ -2134,7 +2100,7 @@
       <c r="G16" s="15"/>
       <c r="H16" s="14"/>
     </row>
-    <row r="17" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>57</v>
       </c>
@@ -2156,7 +2122,7 @@
       <c r="G17" s="15"/>
       <c r="H17" s="14"/>
     </row>
-    <row r="18" spans="1:8" ht="52.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>26</v>
       </c>
@@ -2178,7 +2144,7 @@
       <c r="G18" s="13"/>
       <c r="H18" s="11"/>
     </row>
-    <row r="19" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>28</v>
       </c>
@@ -2200,7 +2166,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>29</v>
       </c>
@@ -2222,7 +2188,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>32</v>
       </c>
@@ -2244,7 +2210,7 @@
       <c r="G21" s="15"/>
       <c r="H21" s="14"/>
     </row>
-    <row r="22" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>30</v>
       </c>
@@ -2266,7 +2232,7 @@
       <c r="G22" s="15"/>
       <c r="H22" s="14"/>
     </row>
-    <row r="23" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>31</v>
       </c>
@@ -2288,7 +2254,7 @@
       <c r="G23" s="15"/>
       <c r="H23" s="14"/>
     </row>
-    <row r="24" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>42</v>
       </c>
@@ -2310,7 +2276,7 @@
       <c r="G24" s="15"/>
       <c r="H24" s="14"/>
     </row>
-    <row r="25" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>43</v>
       </c>
@@ -2332,7 +2298,7 @@
       <c r="G25" s="15"/>
       <c r="H25" s="14"/>
     </row>
-    <row r="26" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>33</v>
       </c>
@@ -2354,7 +2320,7 @@
       <c r="G26" s="15"/>
       <c r="H26" s="14"/>
     </row>
-    <row r="27" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
         <v>34</v>
       </c>
@@ -2376,7 +2342,7 @@
       <c r="G27" s="15"/>
       <c r="H27" s="14"/>
     </row>
-    <row r="28" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>35</v>
       </c>
@@ -2398,7 +2364,7 @@
       <c r="G28" s="15"/>
       <c r="H28" s="14"/>
     </row>
-    <row r="29" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
         <v>40</v>
       </c>
@@ -2420,7 +2386,7 @@
       <c r="G29" s="15"/>
       <c r="H29" s="14"/>
     </row>
-    <row r="30" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
         <v>36</v>
       </c>
@@ -2442,7 +2408,7 @@
       <c r="G30" s="15"/>
       <c r="H30" s="14"/>
     </row>
-    <row r="31" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
         <v>37</v>
       </c>
@@ -2464,7 +2430,7 @@
       <c r="G31" s="15"/>
       <c r="H31" s="14"/>
     </row>
-    <row r="32" spans="1:8" ht="123.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="123.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
         <v>41</v>
       </c>
@@ -2486,7 +2452,7 @@
       <c r="G32" s="15"/>
       <c r="H32" s="14"/>
     </row>
-    <row r="33" spans="1:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
         <v>44</v>
       </c>
@@ -2508,7 +2474,7 @@
       <c r="G33" s="15"/>
       <c r="H33" s="14"/>
     </row>
-    <row r="34" spans="1:8" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
         <v>46</v>
       </c>
@@ -2530,7 +2496,7 @@
       <c r="G34" s="15"/>
       <c r="H34" s="14"/>
     </row>
-    <row r="35" spans="1:8" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="61.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
         <v>45</v>
       </c>
@@ -2552,7 +2518,7 @@
       <c r="G35" s="15"/>
       <c r="H35" s="14"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="17"/>
       <c r="B36" s="22"/>
       <c r="C36" s="18"/>
@@ -2562,24 +2528,24 @@
       <c r="G36" s="18"/>
       <c r="H36" s="20"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="40" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-    </row>
-    <row r="38" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+    </row>
+    <row r="38" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>1</v>
       </c>
@@ -2605,7 +2571,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>47</v>
       </c>
@@ -2627,7 +2593,7 @@
       <c r="G40" s="3"/>
       <c r="H40" s="10"/>
     </row>
-    <row r="41" spans="1:8" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
         <v>89</v>
       </c>
@@ -2649,7 +2615,7 @@
       <c r="G41" s="3"/>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="1:8" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
         <v>90</v>
       </c>
@@ -2671,7 +2637,7 @@
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
     </row>
-    <row r="43" spans="1:8" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="133.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
         <v>59</v>
       </c>
@@ -2693,7 +2659,7 @@
       <c r="G43" s="14"/>
       <c r="H43" s="14"/>
     </row>
-    <row r="44" spans="1:8" ht="92.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="92.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
         <v>63</v>
       </c>
@@ -2715,7 +2681,7 @@
       <c r="G44" s="14"/>
       <c r="H44" s="14"/>
     </row>
-    <row r="45" spans="1:8" ht="64.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="25" t="s">
         <v>56</v>
       </c>
@@ -2737,7 +2703,7 @@
       <c r="G45" s="13"/>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="1:8" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="56.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="25" t="s">
         <v>53</v>
       </c>
@@ -2759,7 +2725,7 @@
       <c r="G46" s="23"/>
       <c r="H46" s="23"/>
     </row>
-    <row r="47" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
         <v>48</v>
       </c>
@@ -2781,7 +2747,7 @@
       <c r="G47" s="3"/>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="1:8" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="58.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
         <v>61</v>
       </c>
@@ -2803,7 +2769,7 @@
       <c r="G48" s="3"/>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="1:8" ht="94.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="94.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
         <v>62</v>
       </c>
@@ -2825,7 +2791,7 @@
       <c r="G49" s="14"/>
       <c r="H49" s="14"/>
     </row>
-    <row r="50" spans="1:8" ht="136.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="136.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="15" t="s">
         <v>60</v>
       </c>
@@ -2847,7 +2813,7 @@
       <c r="G50" s="14"/>
       <c r="H50" s="14"/>
     </row>
-    <row r="51" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
         <v>58</v>
       </c>
@@ -2869,7 +2835,7 @@
       <c r="G51" s="14"/>
       <c r="H51" s="14"/>
     </row>
-    <row r="52" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="24" t="s">
         <v>55</v>
       </c>
@@ -2891,7 +2857,7 @@
       <c r="G52" s="13"/>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="1:8" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="60.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="25" t="s">
         <v>52</v>
       </c>
@@ -2913,7 +2879,7 @@
       <c r="G53" s="23"/>
       <c r="H53" s="23"/>
     </row>
-    <row r="54" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
         <v>64</v>
       </c>
@@ -2935,7 +2901,7 @@
       <c r="G54" s="13"/>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
         <v>65</v>
       </c>
@@ -2957,7 +2923,7 @@
       <c r="G55" s="13"/>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="1:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="16" t="s">
         <v>66</v>
       </c>
@@ -2979,7 +2945,7 @@
       <c r="G56" s="13"/>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="16" t="s">
         <v>67</v>
       </c>
@@ -3001,7 +2967,7 @@
       <c r="G57" s="13"/>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="1:8" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="43.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
         <v>68</v>
       </c>
@@ -3023,7 +2989,7 @@
       <c r="G58" s="13"/>
       <c r="H58" s="4"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="16" t="s">
         <v>69</v>
       </c>
@@ -3045,7 +3011,7 @@
       <c r="G59" s="13"/>
       <c r="H59" s="4"/>
     </row>
-    <row r="60" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="16" t="s">
         <v>71</v>
       </c>
@@ -3067,7 +3033,7 @@
       <c r="G60" s="13"/>
       <c r="H60" s="4"/>
     </row>
-    <row r="61" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="16" t="s">
         <v>72</v>
       </c>
@@ -3089,7 +3055,7 @@
       <c r="G61" s="13"/>
       <c r="H61" s="4"/>
     </row>
-    <row r="62" spans="1:8" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="46.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="16" t="s">
         <v>73</v>
       </c>
@@ -3111,7 +3077,7 @@
       <c r="G62" s="13"/>
       <c r="H62" s="4"/>
     </row>
-    <row r="63" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="16" t="s">
         <v>75</v>
       </c>
@@ -3133,7 +3099,7 @@
       <c r="G63" s="13"/>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="16" t="s">
         <v>74</v>
       </c>
@@ -3155,7 +3121,7 @@
       <c r="G64" s="13"/>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="16" t="s">
         <v>76</v>
       </c>
@@ -3177,7 +3143,7 @@
       <c r="G65" s="13"/>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="16" t="s">
         <v>77</v>
       </c>
@@ -3199,7 +3165,7 @@
       <c r="G66" s="13"/>
       <c r="H66" s="4"/>
     </row>
-    <row r="67" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="16" t="s">
         <v>78</v>
       </c>
@@ -3221,7 +3187,7 @@
       <c r="G67" s="13"/>
       <c r="H67" s="4"/>
     </row>
-    <row r="68" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="16" t="s">
         <v>79</v>
       </c>
@@ -3243,7 +3209,7 @@
       <c r="G68" s="13"/>
       <c r="H68" s="4"/>
     </row>
-    <row r="69" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="16" t="s">
         <v>80</v>
       </c>
@@ -3265,7 +3231,7 @@
       <c r="G69" s="13"/>
       <c r="H69" s="4"/>
     </row>
-    <row r="70" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="26"/>
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
@@ -3275,7 +3241,7 @@
       <c r="G70" s="13"/>
       <c r="H70" s="4"/>
     </row>
-    <row r="71" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="26"/>
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
@@ -3285,7 +3251,7 @@
       <c r="G71" s="13"/>
       <c r="H71" s="4"/>
     </row>
-    <row r="72" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="26"/>
       <c r="B72" s="13"/>
       <c r="C72" s="13"/>
@@ -3295,7 +3261,7 @@
       <c r="G72" s="13"/>
       <c r="H72" s="4"/>
     </row>
-    <row r="73" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="30"/>
       <c r="B73" s="31"/>
       <c r="C73" s="31"/>
@@ -3305,7 +3271,7 @@
       <c r="G73" s="31"/>
       <c r="H73" s="29"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="34"/>
       <c r="B74" s="35"/>
       <c r="C74" s="34"/>
@@ -3315,12 +3281,12 @@
       <c r="G74" s="34"/>
       <c r="H74" s="34"/>
     </row>
-    <row r="75" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>1</v>
       </c>
@@ -3346,7 +3312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="262.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="262.89999999999998" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="16" t="s">
         <v>85</v>
       </c>
@@ -3368,7 +3334,7 @@
       <c r="G77" s="3"/>
       <c r="H77" s="10"/>
     </row>
-    <row r="78" spans="1:8" ht="244.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="244.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="16" t="s">
         <v>81</v>
       </c>
@@ -3390,7 +3356,7 @@
       <c r="G78" s="3"/>
       <c r="H78" s="4"/>
     </row>
-    <row r="79" spans="1:8" ht="147" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="16" t="s">
         <v>82</v>
       </c>
@@ -3412,7 +3378,7 @@
       <c r="G79" s="3"/>
       <c r="H79" s="4"/>
     </row>
-    <row r="80" spans="1:8" ht="110.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="110.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="16" t="s">
         <v>83</v>
       </c>
@@ -3434,7 +3400,7 @@
       <c r="G80" s="3"/>
       <c r="H80" s="4"/>
     </row>
-    <row r="81" spans="1:8" ht="192.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="192.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="16" t="s">
         <v>84</v>
       </c>
@@ -3456,7 +3422,7 @@
       <c r="G81" s="3"/>
       <c r="H81" s="4"/>
     </row>
-    <row r="82" spans="1:8" ht="208.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="208.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="16" t="s">
         <v>86</v>
       </c>
@@ -3478,7 +3444,7 @@
       <c r="G82" s="3"/>
       <c r="H82" s="4"/>
     </row>
-    <row r="83" spans="1:8" ht="246.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="246.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="16" t="s">
         <v>87</v>
       </c>
@@ -3500,7 +3466,7 @@
       <c r="G83" s="3"/>
       <c r="H83" s="4"/>
     </row>
-    <row r="84" spans="1:8" ht="187.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="187.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="16" t="s">
         <v>88</v>
       </c>
@@ -3522,7 +3488,7 @@
       <c r="G84" s="3"/>
       <c r="H84" s="4"/>
     </row>
-    <row r="85" spans="1:8" ht="409.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="36" t="s">
         <v>91</v>
       </c>
@@ -3544,7 +3510,7 @@
       <c r="G85" s="3"/>
       <c r="H85" s="4"/>
     </row>
-    <row r="86" spans="1:8" ht="316.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="316.89999999999998" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="16" t="s">
         <v>92</v>
       </c>
@@ -3566,7 +3532,7 @@
       <c r="G86" s="3"/>
       <c r="H86" s="4"/>
     </row>
-    <row r="87" spans="1:8" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="16" t="s">
         <v>93</v>
       </c>
@@ -3588,7 +3554,7 @@
       <c r="G87" s="3"/>
       <c r="H87" s="10"/>
     </row>
-    <row r="88" spans="1:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="21" t="s">
         <v>94</v>
       </c>
@@ -3610,7 +3576,7 @@
       <c r="G88" s="3"/>
       <c r="H88" s="4"/>
     </row>
-    <row r="89" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>97</v>
       </c>
@@ -3632,7 +3598,7 @@
       <c r="G89" s="3"/>
       <c r="H89" s="4"/>
     </row>
-    <row r="90" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>95</v>
       </c>
@@ -3654,7 +3620,7 @@
       <c r="G90" s="3"/>
       <c r="H90" s="4"/>
     </row>
-    <row r="91" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="16" t="s">
         <v>96</v>
       </c>
@@ -3676,7 +3642,7 @@
       <c r="G91" s="3"/>
       <c r="H91" s="4"/>
     </row>
-    <row r="92" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="16" t="s">
         <v>98</v>
       </c>
@@ -3689,7 +3655,7 @@
       <c r="D92" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E92" s="41">
+      <c r="E92" s="37">
         <v>45479</v>
       </c>
       <c r="F92" s="8" t="s">
@@ -3698,7 +3664,7 @@
       <c r="G92" s="3"/>
       <c r="H92" s="4"/>
     </row>
-    <row r="93" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="16" t="s">
         <v>99</v>
       </c>
@@ -3711,7 +3677,7 @@
       <c r="D93" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E93" s="41">
+      <c r="E93" s="37">
         <v>45479</v>
       </c>
       <c r="F93" s="8" t="s">
@@ -3720,20 +3686,20 @@
       <c r="G93" s="3"/>
       <c r="H93" s="4"/>
     </row>
-    <row r="94" spans="1:8" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="44" t="s">
+    <row r="94" spans="1:8" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="B94" s="42">
+      <c r="B94" s="38">
         <v>221111153</v>
       </c>
-      <c r="C94" s="42" t="s">
+      <c r="C94" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D94" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="E94" s="43">
+      <c r="D94" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="E94" s="39">
         <v>45479</v>
       </c>
       <c r="F94" s="8" t="s">
@@ -3742,7 +3708,7 @@
       <c r="G94" s="3"/>
       <c r="H94" s="4"/>
     </row>
-    <row r="95" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="16" t="s">
         <v>101</v>
       </c>
@@ -3755,7 +3721,7 @@
       <c r="D95" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E95" s="41">
+      <c r="E95" s="37">
         <v>45479</v>
       </c>
       <c r="F95" s="8" t="s">
@@ -3764,7 +3730,7 @@
       <c r="G95" s="3"/>
       <c r="H95" s="4"/>
     </row>
-    <row r="96" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="16" t="s">
         <v>102</v>
       </c>
@@ -3777,7 +3743,7 @@
       <c r="D96" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E96" s="41">
+      <c r="E96" s="37">
         <v>45479</v>
       </c>
       <c r="F96" s="8" t="s">
@@ -3786,240 +3752,336 @@
       <c r="G96" s="3"/>
       <c r="H96" s="4"/>
     </row>
-    <row r="97" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="37"/>
-      <c r="B97" s="38"/>
-      <c r="C97" s="38"/>
-      <c r="D97" s="38"/>
-      <c r="E97" s="38"/>
-      <c r="F97" s="38"/>
-      <c r="G97" s="39"/>
-      <c r="H97" s="11"/>
-    </row>
-    <row r="98" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H98"/>
-    </row>
-    <row r="99" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="40" t="s">
+    <row r="97" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B97" s="4">
+        <v>221110969</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E97" s="12">
+        <v>45476</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G97" s="3"/>
+      <c r="H97" s="4"/>
+    </row>
+    <row r="98" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B98" s="4">
+        <v>221110969</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E98" s="12">
+        <v>45476</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G98" s="3"/>
+      <c r="H98" s="4"/>
+    </row>
+    <row r="99" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B99" s="4">
+        <v>221110969</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E99" s="12">
+        <v>45476</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G99" s="3"/>
+      <c r="H99" s="4"/>
+    </row>
+    <row r="100" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="16"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="37"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="4"/>
+    </row>
+    <row r="101" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="16"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="37"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="4"/>
+    </row>
+    <row r="102" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="16"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="37"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="4"/>
+    </row>
+    <row r="103" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="42"/>
+      <c r="B103" s="42"/>
+      <c r="C103" s="42"/>
+      <c r="D103" s="42"/>
+      <c r="E103" s="42"/>
+      <c r="F103" s="42"/>
+      <c r="G103" s="42"/>
+      <c r="H103" s="4"/>
+    </row>
+    <row r="104" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H104"/>
+    </row>
+    <row r="105" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B99" s="40"/>
-      <c r="C99" s="40"/>
-      <c r="D99" s="40"/>
-      <c r="E99" s="40"/>
-      <c r="F99" s="40"/>
-      <c r="G99" s="40"/>
-      <c r="H99" s="40"/>
-    </row>
-    <row r="100" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H100"/>
-    </row>
-    <row r="101" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H101"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H102"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H103"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H104"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H105"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B105" s="41"/>
+      <c r="C105" s="41"/>
+      <c r="D105" s="41"/>
+      <c r="E105" s="41"/>
+      <c r="F105" s="41"/>
+      <c r="G105" s="41"/>
+      <c r="H105" s="41"/>
+    </row>
+    <row r="106" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H106"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H107"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H108"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H109"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H110"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H111"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H112"/>
     </row>
-    <row r="113" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H113"/>
     </row>
-    <row r="114" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H114"/>
     </row>
-    <row r="115" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H115"/>
     </row>
-    <row r="116" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H116"/>
     </row>
-    <row r="117" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H117"/>
     </row>
-    <row r="118" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H118"/>
     </row>
-    <row r="119" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H119"/>
     </row>
-    <row r="120" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H120"/>
     </row>
-    <row r="121" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H121"/>
     </row>
-    <row r="122" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H122"/>
     </row>
-    <row r="123" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H123"/>
     </row>
-    <row r="124" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H124"/>
     </row>
-    <row r="125" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H125"/>
     </row>
-    <row r="126" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H126"/>
     </row>
-    <row r="127" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H127"/>
     </row>
-    <row r="128" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H128"/>
     </row>
-    <row r="129" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H129"/>
     </row>
-    <row r="130" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H130"/>
     </row>
-    <row r="131" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H131"/>
     </row>
-    <row r="132" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H132"/>
     </row>
-    <row r="133" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H133"/>
     </row>
-    <row r="134" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H134"/>
     </row>
-    <row r="135" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H135"/>
     </row>
-    <row r="136" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H136"/>
     </row>
-    <row r="137" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H137"/>
     </row>
-    <row r="138" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H138"/>
     </row>
-    <row r="139" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H139"/>
     </row>
-    <row r="140" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H140"/>
     </row>
-    <row r="141" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H141"/>
     </row>
-    <row r="142" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H142"/>
     </row>
-    <row r="143" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H143"/>
     </row>
-    <row r="144" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H144"/>
     </row>
-    <row r="145" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H145"/>
     </row>
-    <row r="146" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H146"/>
     </row>
-    <row r="147" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H147"/>
     </row>
-    <row r="148" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H148"/>
     </row>
-    <row r="149" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H149"/>
     </row>
-    <row r="150" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H150"/>
     </row>
-    <row r="151" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H151"/>
     </row>
-    <row r="152" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H152"/>
     </row>
-    <row r="153" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H153"/>
     </row>
-    <row r="154" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H154"/>
     </row>
-    <row r="155" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H155"/>
     </row>
-    <row r="156" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H156"/>
     </row>
-    <row r="157" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H157"/>
     </row>
-    <row r="158" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H158"/>
     </row>
-    <row r="159" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H159"/>
     </row>
-    <row r="160" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H160"/>
     </row>
-    <row r="161" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H161"/>
     </row>
-    <row r="162" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H162"/>
     </row>
-    <row r="163" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H163"/>
     </row>
-    <row r="164" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H164"/>
     </row>
-    <row r="165" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H165"/>
     </row>
-    <row r="166" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H166"/>
     </row>
-    <row r="167" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H167"/>
+    </row>
+    <row r="168" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H168"/>
+    </row>
+    <row r="169" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H169"/>
+    </row>
+    <row r="170" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H170"/>
+    </row>
+    <row r="171" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H171"/>
+    </row>
+    <row r="172" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H172"/>
+    </row>
+    <row r="173" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H173"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A97:G97"/>
+    <mergeCell ref="A103:G103"/>
     <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A99:H99"/>
+    <mergeCell ref="A105:H105"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
@@ -4060,29 +4122,15 @@
     <hyperlink ref="F87" r:id="rId35" xr:uid="{599B2859-3205-4713-86DA-CBE7738D1D75}"/>
     <hyperlink ref="F88:F91" r:id="rId36" display="LINK GITHUB" xr:uid="{D5087055-21B6-4319-AB35-6B3E616C1FDD}"/>
     <hyperlink ref="F92:F96" r:id="rId37" display="LINK GITHUB" xr:uid="{68A4ED14-2B8A-4344-BABD-63DC1FB70C1F}"/>
+    <hyperlink ref="F97:F99" r:id="rId38" display="LINK GITHUB" xr:uid="{930783DA-741E-4BC4-97B1-C58AE6513E6F}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId38"/>
-  <drawing r:id="rId39"/>
+  <pageSetup orientation="portrait" r:id="rId39"/>
+  <drawing r:id="rId40"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100706FCD106DC67F478E7AC08055BE95E0" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b4c83244a03efcf3d87561d2a17ee175">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d57f510-195c-4a5b-9910-92d08bb6f927" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2ab241c6980cd99e19d275b176c1d106" ns2:_="">
     <xsd:import namespace="5d57f510-195c-4a5b-9910-92d08bb6f927"/>
@@ -4226,25 +4274,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3148F68F-EDCD-4F99-BB76-BF661EA9CB60}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB351F66-E749-4C6A-94A3-2E72291390F1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F962CA7-ECD0-41CD-BDDF-88920DD9A3EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4261,4 +4306,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB351F66-E749-4C6A-94A3-2E72291390F1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3148F68F-EDCD-4F99-BB76-BF661EA9CB60}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/project/KelapaMuda_Log Book Progres Aplikasi.xlsx
+++ b/project/KelapaMuda_Log Book Progres Aplikasi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah Mikroskil\Semester 4\Front End Mobile\Kelompok UAS\FE-FlutterProject\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83909E86-49BE-448F-B6E5-19DAE10DFB66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66F7C5F-0E5B-4A3C-82E2-DCDA09974E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="109">
   <si>
     <t>Sub Proyek ke-1 (Minggu 1-Minggu 4)</t>
   </si>
@@ -1199,6 +1190,15 @@
   </si>
   <si>
     <t>Menambah LinearProgressIndicator pada History Page</t>
+  </si>
+  <si>
+    <t>Penyempurnaan Fitur Dark Mode</t>
+  </si>
+  <si>
+    <t>Menambah Fitur Filter Date/ DatePicker pada Home Page</t>
+  </si>
+  <si>
+    <t>Menambah Fitur Filter Date/ DatePicker pada History Page</t>
   </si>
 </sst>
 </file>
@@ -1467,11 +1467,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1810,8 +1810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H173"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="A95" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103:G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2529,16 +2529,16 @@
       <c r="H36" s="20"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="41" t="s">
+      <c r="A37" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
     </row>
     <row r="38" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
@@ -3819,59 +3819,95 @@
       <c r="H99" s="4"/>
     </row>
     <row r="100" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="16"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="37"/>
-      <c r="F100" s="8"/>
+      <c r="A100" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B100" s="4">
+        <v>221111825</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E100" s="12">
+        <v>45474</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="G100" s="3"/>
       <c r="H100" s="4"/>
     </row>
     <row r="101" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="16"/>
-      <c r="B101" s="4"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="37"/>
-      <c r="F101" s="8"/>
+      <c r="A101" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B101" s="4">
+        <v>221111825</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E101" s="12">
+        <v>45474</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="G101" s="3"/>
       <c r="H101" s="4"/>
     </row>
     <row r="102" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="16"/>
-      <c r="B102" s="4"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="37"/>
-      <c r="F102" s="8"/>
+      <c r="A102" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B102" s="4">
+        <v>221111825</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E102" s="12">
+        <v>45474</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="G102" s="3"/>
       <c r="H102" s="4"/>
     </row>
     <row r="103" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="42"/>
-      <c r="B103" s="42"/>
-      <c r="C103" s="42"/>
-      <c r="D103" s="42"/>
-      <c r="E103" s="42"/>
-      <c r="F103" s="42"/>
-      <c r="G103" s="42"/>
+      <c r="A103" s="41"/>
+      <c r="B103" s="41"/>
+      <c r="C103" s="41"/>
+      <c r="D103" s="41"/>
+      <c r="E103" s="41"/>
+      <c r="F103" s="41"/>
+      <c r="G103" s="41"/>
       <c r="H103" s="4"/>
     </row>
     <row r="104" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H104"/>
     </row>
     <row r="105" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="41" t="s">
+      <c r="A105" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B105" s="41"/>
-      <c r="C105" s="41"/>
-      <c r="D105" s="41"/>
-      <c r="E105" s="41"/>
-      <c r="F105" s="41"/>
-      <c r="G105" s="41"/>
-      <c r="H105" s="41"/>
+      <c r="B105" s="42"/>
+      <c r="C105" s="42"/>
+      <c r="D105" s="42"/>
+      <c r="E105" s="42"/>
+      <c r="F105" s="42"/>
+      <c r="G105" s="42"/>
+      <c r="H105" s="42"/>
     </row>
     <row r="106" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H106"/>
@@ -4123,14 +4159,23 @@
     <hyperlink ref="F88:F91" r:id="rId36" display="LINK GITHUB" xr:uid="{D5087055-21B6-4319-AB35-6B3E616C1FDD}"/>
     <hyperlink ref="F92:F96" r:id="rId37" display="LINK GITHUB" xr:uid="{68A4ED14-2B8A-4344-BABD-63DC1FB70C1F}"/>
     <hyperlink ref="F97:F99" r:id="rId38" display="LINK GITHUB" xr:uid="{930783DA-741E-4BC4-97B1-C58AE6513E6F}"/>
+    <hyperlink ref="F100" r:id="rId39" xr:uid="{B81871B8-2E0F-4820-B339-46483759F5E1}"/>
+    <hyperlink ref="F101" r:id="rId40" xr:uid="{EC55A2D1-89A2-47DC-844B-1B622EAE2BBC}"/>
+    <hyperlink ref="F102" r:id="rId41" xr:uid="{9980D98D-86A4-475A-9BB1-F93406A35235}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId39"/>
-  <drawing r:id="rId40"/>
+  <pageSetup orientation="portrait" r:id="rId42"/>
+  <drawing r:id="rId43"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100706FCD106DC67F478E7AC08055BE95E0" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b4c83244a03efcf3d87561d2a17ee175">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d57f510-195c-4a5b-9910-92d08bb6f927" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2ab241c6980cd99e19d275b176c1d106" ns2:_="">
     <xsd:import namespace="5d57f510-195c-4a5b-9910-92d08bb6f927"/>
@@ -4274,12 +4319,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4290,6 +4329,16 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB351F66-E749-4C6A-94A3-2E72291390F1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F962CA7-ECD0-41CD-BDDF-88920DD9A3EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4308,16 +4357,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB351F66-E749-4C6A-94A3-2E72291390F1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3148F68F-EDCD-4F99-BB76-BF661EA9CB60}">
   <ds:schemaRefs>
